--- a/google_analytics_schema.xlsx
+++ b/google_analytics_schema.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1905" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1948" uniqueCount="697">
   <si>
     <t>visitorId</t>
   </si>
@@ -2048,6 +2048,132 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>visit_number</t>
+  </si>
+  <si>
+    <t>visit_id</t>
+  </si>
+  <si>
+    <t>device_category</t>
+  </si>
+  <si>
+    <t>visits</t>
+  </si>
+  <si>
+    <t>pageviews</t>
+  </si>
+  <si>
+    <t>transactions</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>browser</t>
+  </si>
+  <si>
+    <t>continent</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>hour</t>
+  </si>
+  <si>
+    <t>time_on_site</t>
+  </si>
+  <si>
+    <t>ad_network_type</t>
+  </si>
+  <si>
+    <t>operating_system</t>
+  </si>
+  <si>
+    <t>social_network</t>
+  </si>
+  <si>
+    <t>product_sku</t>
+  </si>
+  <si>
+    <t>product_price</t>
+  </si>
+  <si>
+    <t>subcontinent</t>
+  </si>
+  <si>
+    <t>sales_region</t>
+  </si>
+  <si>
+    <t>transaction_id</t>
+  </si>
+  <si>
+    <t>product_category</t>
+  </si>
+  <si>
+    <t>product_name</t>
+  </si>
+  <si>
+    <t>product_brand</t>
+  </si>
+  <si>
+    <t>product_quantity</t>
+  </si>
+  <si>
+    <t>social_source_referral</t>
+  </si>
+  <si>
+    <t>client_id</t>
+  </si>
+  <si>
+    <t>channel_group</t>
+  </si>
+  <si>
+    <t>revenue</t>
+  </si>
+  <si>
+    <t>direct_traffic</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>metro</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>product_brand_grp</t>
+  </si>
+  <si>
+    <t>product_brand_pgrp</t>
+  </si>
+  <si>
+    <t>product_category_grp</t>
+  </si>
+  <si>
+    <t>page_path</t>
+  </si>
+  <si>
+    <t>page_path_level_1</t>
+  </si>
+  <si>
+    <t>page_path_level_2</t>
+  </si>
+  <si>
+    <t>page_path_level_3</t>
+  </si>
+  <si>
+    <t>page_path_level_4</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -2134,11 +2260,20 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="tbValidFields" displayName="tbValidFields" ref="A1:K126" totalsRowShown="0">
-  <autoFilter ref="A1:K126"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="tbValidFields" displayName="tbValidFields" ref="A1:L126" totalsRowShown="0">
+  <autoFilter ref="A1:L126">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="device_category"/>
+        <filter val="product_category"/>
+        <filter val="product_category_grp"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="12">
     <tableColumn id="6" name="#"/>
     <tableColumn id="1" name="Field Name"/>
+    <tableColumn id="12" name="0"/>
     <tableColumn id="7" name="RFM"/>
     <tableColumn id="9" name="Field Group"/>
     <tableColumn id="10" name="Status"/>
@@ -5283,26 +5418,27 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K126"/>
+  <dimension ref="A1:L126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L78" sqref="L78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" customWidth="1"/>
-    <col min="9" max="9" width="14.77734375" customWidth="1"/>
-    <col min="10" max="10" width="81" style="1" customWidth="1"/>
-    <col min="11" max="11" width="92.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="10" max="10" width="14.77734375" customWidth="1"/>
+    <col min="11" max="11" width="81" style="1" customWidth="1"/>
+    <col min="12" max="12" width="92.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>534</v>
       </c>
@@ -5310,34 +5446,37 @@
         <v>257</v>
       </c>
       <c r="C1" t="s">
+        <v>696</v>
+      </c>
+      <c r="D1" t="s">
         <v>633</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>636</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>654</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>639</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>258</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>516</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>517</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5345,34 +5484,37 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>635</v>
+        <v>655</v>
       </c>
       <c r="D2" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E2" t="s">
+        <v>638</v>
+      </c>
+      <c r="F2" t="s">
         <v>646</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>653</v>
       </c>
-      <c r="G2" t="s">
-        <v>1</v>
-      </c>
       <c r="H2" t="s">
-        <v>518</v>
-      </c>
-      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>518</v>
+      </c>
+      <c r="J2">
         <v>384</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="43.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5380,69 +5522,72 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>635</v>
+        <v>656</v>
       </c>
       <c r="D3" t="s">
+        <v>635</v>
+      </c>
+      <c r="E3" t="s">
         <v>637</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>646</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>653</v>
       </c>
-      <c r="G3" t="s">
-        <v>1</v>
-      </c>
       <c r="H3" t="s">
-        <v>518</v>
-      </c>
-      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>518</v>
+      </c>
+      <c r="J3">
         <v>886303</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>634</v>
-      </c>
       <c r="D4" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E4" t="s">
+        <v>638</v>
+      </c>
+      <c r="F4" t="s">
         <v>647</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>642</v>
       </c>
-      <c r="G4" t="s">
-        <v>1</v>
-      </c>
       <c r="H4" t="s">
-        <v>518</v>
-      </c>
-      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>518</v>
+      </c>
+      <c r="J4">
         <v>887159</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5450,34 +5595,37 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
         <v>634</v>
       </c>
-      <c r="D5" t="s">
-        <v>638</v>
-      </c>
       <c r="E5" t="s">
+        <v>638</v>
+      </c>
+      <c r="F5" t="s">
         <v>646</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>642</v>
       </c>
-      <c r="G5" t="s">
-        <v>6</v>
-      </c>
       <c r="H5" t="s">
-        <v>518</v>
-      </c>
-      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="I5" t="s">
+        <v>518</v>
+      </c>
+      <c r="J5">
         <v>366</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5485,69 +5633,72 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>635</v>
+        <v>658</v>
       </c>
       <c r="D6" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E6" t="s">
+        <v>638</v>
+      </c>
+      <c r="F6" t="s">
         <v>646</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>640</v>
       </c>
-      <c r="G6" t="s">
-        <v>1</v>
-      </c>
       <c r="H6" t="s">
-        <v>518</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>518</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
-        <v>635</v>
-      </c>
       <c r="D7" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E7" t="s">
+        <v>638</v>
+      </c>
+      <c r="F7" t="s">
         <v>647</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>640</v>
       </c>
-      <c r="G7" t="s">
-        <v>1</v>
-      </c>
       <c r="H7" t="s">
-        <v>518</v>
-      </c>
-      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>518</v>
+      </c>
+      <c r="J7">
         <v>274</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5555,34 +5706,37 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>635</v>
+        <v>659</v>
       </c>
       <c r="D8" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E8" t="s">
+        <v>638</v>
+      </c>
+      <c r="F8" t="s">
         <v>646</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>640</v>
       </c>
-      <c r="G8" t="s">
-        <v>1</v>
-      </c>
       <c r="H8" t="s">
-        <v>518</v>
-      </c>
-      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>518</v>
+      </c>
+      <c r="J8">
         <v>297</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5590,69 +5744,72 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>635</v>
+        <v>666</v>
       </c>
       <c r="D9" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E9" t="s">
+        <v>638</v>
+      </c>
+      <c r="F9" t="s">
         <v>646</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>640</v>
       </c>
-      <c r="G9" t="s">
-        <v>1</v>
-      </c>
       <c r="H9" t="s">
-        <v>518</v>
-      </c>
-      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>518</v>
+      </c>
+      <c r="J9">
         <v>4627</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" t="s">
-        <v>635</v>
-      </c>
       <c r="D10" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E10" t="s">
+        <v>638</v>
+      </c>
+      <c r="F10" t="s">
         <v>647</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>640</v>
       </c>
-      <c r="G10" t="s">
-        <v>1</v>
-      </c>
       <c r="H10" t="s">
-        <v>518</v>
-      </c>
-      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>518</v>
+      </c>
+      <c r="J10">
         <v>368</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5660,279 +5817,282 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>635</v>
+        <v>660</v>
       </c>
       <c r="D11" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E11" t="s">
+        <v>638</v>
+      </c>
+      <c r="F11" t="s">
         <v>646</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>640</v>
       </c>
-      <c r="G11" t="s">
-        <v>1</v>
-      </c>
       <c r="H11" t="s">
-        <v>518</v>
-      </c>
-      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>518</v>
+      </c>
+      <c r="J11">
         <v>379</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="C12" t="s">
-        <v>635</v>
-      </c>
       <c r="D12" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E12" t="s">
+        <v>638</v>
+      </c>
+      <c r="F12" t="s">
         <v>647</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>640</v>
       </c>
-      <c r="G12" t="s">
-        <v>1</v>
-      </c>
       <c r="H12" t="s">
-        <v>518</v>
-      </c>
-      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>518</v>
+      </c>
+      <c r="J12">
         <v>5698</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" t="s">
-        <v>635</v>
-      </c>
       <c r="D13" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E13" t="s">
+        <v>638</v>
+      </c>
+      <c r="F13" t="s">
         <v>647</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>640</v>
       </c>
-      <c r="G13" t="s">
-        <v>1</v>
-      </c>
       <c r="H13" t="s">
-        <v>518</v>
-      </c>
-      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>518</v>
+      </c>
+      <c r="J13">
         <v>368</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" t="s">
-        <v>635</v>
-      </c>
       <c r="D14" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E14" t="s">
+        <v>638</v>
+      </c>
+      <c r="F14" t="s">
         <v>647</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>640</v>
       </c>
-      <c r="G14" t="s">
-        <v>1</v>
-      </c>
       <c r="H14" t="s">
-        <v>518</v>
-      </c>
-      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>518</v>
+      </c>
+      <c r="J14">
         <v>6566</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
       </c>
-      <c r="C15" t="s">
-        <v>635</v>
-      </c>
       <c r="D15" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E15" t="s">
+        <v>638</v>
+      </c>
+      <c r="F15" t="s">
         <v>647</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>640</v>
       </c>
-      <c r="G15" t="s">
-        <v>1</v>
-      </c>
       <c r="H15" t="s">
-        <v>518</v>
-      </c>
-      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>518</v>
+      </c>
+      <c r="J15">
         <v>100</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
       </c>
-      <c r="C16" t="s">
-        <v>635</v>
-      </c>
       <c r="D16" t="s">
+        <v>635</v>
+      </c>
+      <c r="E16" t="s">
         <v>643</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>647</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>641</v>
       </c>
-      <c r="G16" t="s">
-        <v>6</v>
-      </c>
       <c r="H16" t="s">
-        <v>518</v>
-      </c>
-      <c r="I16">
+        <v>6</v>
+      </c>
+      <c r="I16" t="s">
+        <v>518</v>
+      </c>
+      <c r="J16">
         <v>1476</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>635</v>
-      </c>
       <c r="D17" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E17" t="s">
+        <v>638</v>
+      </c>
+      <c r="F17" t="s">
         <v>647</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>641</v>
       </c>
-      <c r="G17" t="s">
-        <v>6</v>
-      </c>
       <c r="H17" t="s">
-        <v>518</v>
-      </c>
-      <c r="I17">
+        <v>6</v>
+      </c>
+      <c r="I17" t="s">
+        <v>518</v>
+      </c>
+      <c r="J17">
         <v>8</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>635</v>
-      </c>
       <c r="D18" t="s">
+        <v>635</v>
+      </c>
+      <c r="E18" t="s">
         <v>643</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>648</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>641</v>
       </c>
-      <c r="G18" t="s">
-        <v>6</v>
-      </c>
       <c r="H18" t="s">
-        <v>518</v>
-      </c>
-      <c r="I18">
+        <v>6</v>
+      </c>
+      <c r="I18" t="s">
+        <v>518</v>
+      </c>
+      <c r="J18">
         <v>275</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5940,206 +6100,209 @@
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>635</v>
+        <v>661</v>
       </c>
       <c r="D19" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E19" t="s">
+        <v>638</v>
+      </c>
+      <c r="F19" t="s">
         <v>646</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>641</v>
       </c>
-      <c r="G19" t="s">
-        <v>6</v>
-      </c>
       <c r="H19" t="s">
-        <v>518</v>
-      </c>
-      <c r="I19">
+        <v>6</v>
+      </c>
+      <c r="I19" t="s">
+        <v>518</v>
+      </c>
+      <c r="J19">
         <v>7</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="K19" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
       </c>
-      <c r="C20" t="s">
-        <v>635</v>
-      </c>
       <c r="D20" t="s">
+        <v>635</v>
+      </c>
+      <c r="E20" t="s">
         <v>643</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>648</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>641</v>
       </c>
-      <c r="G20" t="s">
-        <v>6</v>
-      </c>
       <c r="H20" t="s">
-        <v>518</v>
-      </c>
-      <c r="I20">
+        <v>6</v>
+      </c>
+      <c r="I20" t="s">
+        <v>518</v>
+      </c>
+      <c r="J20">
         <v>2718</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>27</v>
       </c>
-      <c r="C21" t="s">
-        <v>635</v>
-      </c>
       <c r="D21" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E21" t="s">
+        <v>638</v>
+      </c>
+      <c r="F21" t="s">
         <v>648</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>641</v>
       </c>
-      <c r="G21" t="s">
-        <v>6</v>
-      </c>
       <c r="H21" t="s">
-        <v>518</v>
-      </c>
-      <c r="I21">
+        <v>6</v>
+      </c>
+      <c r="I21" t="s">
+        <v>518</v>
+      </c>
+      <c r="J21">
         <v>45</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="K21" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>33</v>
       </c>
-      <c r="C22" t="s">
-        <v>635</v>
-      </c>
       <c r="D22" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E22" t="s">
+        <v>638</v>
+      </c>
+      <c r="F22" t="s">
         <v>647</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>641</v>
       </c>
-      <c r="G22" t="s">
-        <v>1</v>
-      </c>
       <c r="H22" t="s">
-        <v>518</v>
-      </c>
-      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>518</v>
+      </c>
+      <c r="J22">
         <v>375</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="K22" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>34</v>
       </c>
-      <c r="C23" t="s">
-        <v>635</v>
-      </c>
       <c r="D23" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E23" t="s">
+        <v>638</v>
+      </c>
+      <c r="F23" t="s">
         <v>648</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>641</v>
       </c>
-      <c r="G23" t="s">
-        <v>6</v>
-      </c>
       <c r="H23" t="s">
-        <v>518</v>
-      </c>
-      <c r="I23">
+        <v>6</v>
+      </c>
+      <c r="I23" t="s">
+        <v>518</v>
+      </c>
+      <c r="J23">
         <v>3</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="K23" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>36</v>
       </c>
-      <c r="C24" t="s">
-        <v>635</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="D24" t="s">
+        <v>635</v>
+      </c>
+      <c r="F24" t="s">
         <v>647</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>641</v>
       </c>
-      <c r="G24" t="s">
-        <v>6</v>
-      </c>
       <c r="H24" t="s">
-        <v>518</v>
-      </c>
-      <c r="I24">
+        <v>6</v>
+      </c>
+      <c r="I24" t="s">
+        <v>518</v>
+      </c>
+      <c r="J24">
         <v>17775</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="K24" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -6147,69 +6310,72 @@
         <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>635</v>
+        <v>667</v>
       </c>
       <c r="D25" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E25" t="s">
+        <v>638</v>
+      </c>
+      <c r="F25" t="s">
         <v>646</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>641</v>
       </c>
-      <c r="G25" t="s">
-        <v>6</v>
-      </c>
       <c r="H25" t="s">
-        <v>518</v>
-      </c>
-      <c r="I25">
+        <v>6</v>
+      </c>
+      <c r="I25" t="s">
+        <v>518</v>
+      </c>
+      <c r="J25">
         <v>3</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="K25" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>41</v>
       </c>
-      <c r="C26" t="s">
-        <v>635</v>
-      </c>
       <c r="D26" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E26" t="s">
+        <v>638</v>
+      </c>
+      <c r="F26" t="s">
         <v>647</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>644</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>42</v>
       </c>
-      <c r="H26" t="s">
-        <v>518</v>
-      </c>
-      <c r="I26">
+      <c r="I26" t="s">
+        <v>518</v>
+      </c>
+      <c r="J26">
         <v>2</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="K26" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="43.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -6217,66 +6383,69 @@
         <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>635</v>
+        <v>683</v>
       </c>
       <c r="D27" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E27" t="s">
+        <v>638</v>
+      </c>
+      <c r="F27" t="s">
         <v>646</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>644</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>42</v>
       </c>
-      <c r="H27" t="s">
-        <v>518</v>
-      </c>
-      <c r="I27">
+      <c r="I27" t="s">
+        <v>518</v>
+      </c>
+      <c r="J27">
         <v>2</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="K27" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>44</v>
       </c>
-      <c r="C28" t="s">
-        <v>635</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="D28" t="s">
+        <v>635</v>
+      </c>
+      <c r="F28" t="s">
         <v>647</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>641</v>
       </c>
-      <c r="G28" t="s">
-        <v>6</v>
-      </c>
       <c r="H28" t="s">
-        <v>518</v>
-      </c>
-      <c r="I28">
+        <v>6</v>
+      </c>
+      <c r="I28" t="s">
+        <v>518</v>
+      </c>
+      <c r="J28">
         <v>2</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="K28" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -6284,34 +6453,37 @@
         <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>635</v>
+        <v>662</v>
       </c>
       <c r="D29" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E29" t="s">
+        <v>638</v>
+      </c>
+      <c r="F29" t="s">
         <v>646</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>641</v>
       </c>
-      <c r="G29" t="s">
-        <v>6</v>
-      </c>
       <c r="H29" t="s">
-        <v>518</v>
-      </c>
-      <c r="I29">
+        <v>6</v>
+      </c>
+      <c r="I29" t="s">
+        <v>518</v>
+      </c>
+      <c r="J29">
         <v>54</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="K29" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -6319,69 +6491,72 @@
         <v>49</v>
       </c>
       <c r="C30" t="s">
-        <v>635</v>
+        <v>668</v>
       </c>
       <c r="D30" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E30" t="s">
+        <v>638</v>
+      </c>
+      <c r="F30" t="s">
         <v>646</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>641</v>
       </c>
-      <c r="G30" t="s">
-        <v>6</v>
-      </c>
       <c r="H30" t="s">
-        <v>518</v>
-      </c>
-      <c r="I30">
+        <v>6</v>
+      </c>
+      <c r="I30" t="s">
+        <v>518</v>
+      </c>
+      <c r="J30">
         <v>20</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="K30" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>51</v>
       </c>
-      <c r="C31" t="s">
-        <v>635</v>
-      </c>
       <c r="D31" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E31" t="s">
+        <v>638</v>
+      </c>
+      <c r="F31" t="s">
         <v>647</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>644</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>42</v>
       </c>
-      <c r="H31" t="s">
-        <v>518</v>
-      </c>
-      <c r="I31">
+      <c r="I31" t="s">
+        <v>518</v>
+      </c>
+      <c r="J31">
         <v>2</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="K31" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -6389,34 +6564,37 @@
         <v>62</v>
       </c>
       <c r="C32" t="s">
-        <v>635</v>
+        <v>657</v>
       </c>
       <c r="D32" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E32" t="s">
+        <v>638</v>
+      </c>
+      <c r="F32" t="s">
         <v>646</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>641</v>
       </c>
-      <c r="G32" t="s">
-        <v>6</v>
-      </c>
       <c r="H32" t="s">
-        <v>518</v>
-      </c>
-      <c r="I32">
+        <v>6</v>
+      </c>
+      <c r="I32" t="s">
+        <v>518</v>
+      </c>
+      <c r="J32">
         <v>3</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="K32" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -6424,34 +6602,37 @@
         <v>64</v>
       </c>
       <c r="C33" t="s">
-        <v>635</v>
+        <v>663</v>
       </c>
       <c r="D33" t="s">
+        <v>635</v>
+      </c>
+      <c r="E33" t="s">
         <v>637</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>646</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>641</v>
       </c>
-      <c r="G33" t="s">
-        <v>6</v>
-      </c>
       <c r="H33" t="s">
-        <v>518</v>
-      </c>
-      <c r="I33">
-        <v>6</v>
-      </c>
-      <c r="J33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I33" t="s">
+        <v>518</v>
+      </c>
+      <c r="J33">
+        <v>6</v>
+      </c>
+      <c r="K33" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -6459,34 +6640,37 @@
         <v>65</v>
       </c>
       <c r="C34" t="s">
-        <v>635</v>
+        <v>672</v>
       </c>
       <c r="D34" t="s">
+        <v>635</v>
+      </c>
+      <c r="E34" t="s">
         <v>637</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>646</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>641</v>
       </c>
-      <c r="G34" t="s">
-        <v>6</v>
-      </c>
       <c r="H34" t="s">
-        <v>518</v>
-      </c>
-      <c r="I34">
+        <v>6</v>
+      </c>
+      <c r="I34" t="s">
+        <v>518</v>
+      </c>
+      <c r="J34">
         <v>23</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="K34" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -6494,34 +6678,37 @@
         <v>66</v>
       </c>
       <c r="C35" t="s">
-        <v>635</v>
+        <v>684</v>
       </c>
       <c r="D35" t="s">
+        <v>635</v>
+      </c>
+      <c r="E35" t="s">
         <v>637</v>
       </c>
-      <c r="E35" t="s">
-        <v>648</v>
-      </c>
       <c r="F35" t="s">
+        <v>646</v>
+      </c>
+      <c r="G35" t="s">
         <v>641</v>
       </c>
-      <c r="G35" t="s">
-        <v>6</v>
-      </c>
       <c r="H35" t="s">
-        <v>518</v>
-      </c>
-      <c r="I35">
+        <v>6</v>
+      </c>
+      <c r="I35" t="s">
+        <v>518</v>
+      </c>
+      <c r="J35">
         <v>222</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="K35" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -6529,34 +6716,37 @@
         <v>67</v>
       </c>
       <c r="C36" t="s">
-        <v>635</v>
+        <v>685</v>
       </c>
       <c r="D36" t="s">
+        <v>635</v>
+      </c>
+      <c r="E36" t="s">
         <v>637</v>
       </c>
-      <c r="E36" t="s">
-        <v>648</v>
-      </c>
       <c r="F36" t="s">
+        <v>646</v>
+      </c>
+      <c r="G36" t="s">
         <v>641</v>
       </c>
-      <c r="G36" t="s">
-        <v>6</v>
-      </c>
       <c r="H36" t="s">
-        <v>518</v>
-      </c>
-      <c r="I36">
+        <v>6</v>
+      </c>
+      <c r="I36" t="s">
+        <v>518</v>
+      </c>
+      <c r="J36">
         <v>376</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="K36" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -6564,34 +6754,37 @@
         <v>68</v>
       </c>
       <c r="C37" t="s">
-        <v>635</v>
+        <v>686</v>
       </c>
       <c r="D37" t="s">
+        <v>635</v>
+      </c>
+      <c r="E37" t="s">
         <v>637</v>
       </c>
-      <c r="E37" t="s">
-        <v>648</v>
-      </c>
       <c r="F37" t="s">
+        <v>646</v>
+      </c>
+      <c r="G37" t="s">
         <v>641</v>
       </c>
-      <c r="G37" t="s">
-        <v>6</v>
-      </c>
       <c r="H37" t="s">
-        <v>518</v>
-      </c>
-      <c r="I37">
+        <v>6</v>
+      </c>
+      <c r="I37" t="s">
+        <v>518</v>
+      </c>
+      <c r="J37">
         <v>94</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="K37" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -6599,34 +6792,37 @@
         <v>69</v>
       </c>
       <c r="C38" t="s">
-        <v>635</v>
+        <v>664</v>
       </c>
       <c r="D38" t="s">
+        <v>635</v>
+      </c>
+      <c r="E38" t="s">
         <v>637</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>646</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>641</v>
       </c>
-      <c r="G38" t="s">
-        <v>6</v>
-      </c>
       <c r="H38" t="s">
-        <v>518</v>
-      </c>
-      <c r="I38">
+        <v>6</v>
+      </c>
+      <c r="I38" t="s">
+        <v>518</v>
+      </c>
+      <c r="J38">
         <v>649</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="K38" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -6634,66 +6830,69 @@
         <v>71</v>
       </c>
       <c r="C39" t="s">
-        <v>635</v>
+        <v>687</v>
       </c>
       <c r="D39" t="s">
+        <v>635</v>
+      </c>
+      <c r="E39" t="s">
         <v>637</v>
       </c>
-      <c r="E39" t="s">
-        <v>647</v>
-      </c>
       <c r="F39" t="s">
+        <v>646</v>
+      </c>
+      <c r="G39" t="s">
         <v>641</v>
       </c>
-      <c r="G39" t="s">
-        <v>6</v>
-      </c>
       <c r="H39" t="s">
-        <v>518</v>
-      </c>
-      <c r="I39">
+        <v>6</v>
+      </c>
+      <c r="I39" t="s">
+        <v>518</v>
+      </c>
+      <c r="J39">
         <v>28064</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="K39" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>76</v>
       </c>
-      <c r="C40" t="s">
-        <v>635</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="D40" t="s">
+        <v>635</v>
+      </c>
+      <c r="F40" t="s">
         <v>647</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>640</v>
       </c>
-      <c r="G40" t="s">
-        <v>1</v>
-      </c>
       <c r="H40" t="s">
-        <v>518</v>
-      </c>
-      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="I40" t="s">
+        <v>518</v>
+      </c>
+      <c r="J40">
         <v>368</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="K40" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -6701,104 +6900,107 @@
         <v>77</v>
       </c>
       <c r="C41" t="s">
-        <v>635</v>
+        <v>673</v>
       </c>
       <c r="D41" t="s">
+        <v>635</v>
+      </c>
+      <c r="E41" t="s">
         <v>637</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>646</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>641</v>
       </c>
-      <c r="G41" t="s">
-        <v>6</v>
-      </c>
       <c r="H41" t="s">
-        <v>518</v>
-      </c>
-      <c r="I41">
-        <v>6</v>
-      </c>
-      <c r="J41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I41" t="s">
+        <v>518</v>
+      </c>
+      <c r="J41">
+        <v>6</v>
+      </c>
+      <c r="K41" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>79</v>
       </c>
-      <c r="C42" t="s">
-        <v>635</v>
-      </c>
       <c r="D42" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E42" t="s">
+        <v>638</v>
+      </c>
+      <c r="F42" t="s">
         <v>648</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>640</v>
       </c>
-      <c r="G42" t="s">
-        <v>1</v>
-      </c>
       <c r="H42" t="s">
-        <v>518</v>
-      </c>
-      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="I42" t="s">
+        <v>518</v>
+      </c>
+      <c r="J42">
         <v>500</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="K42" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>80</v>
       </c>
-      <c r="C43" t="s">
-        <v>635</v>
-      </c>
       <c r="D43" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E43" t="s">
+        <v>638</v>
+      </c>
+      <c r="F43" t="s">
         <v>647</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>640</v>
       </c>
-      <c r="G43" t="s">
-        <v>1</v>
-      </c>
       <c r="H43" t="s">
-        <v>518</v>
-      </c>
-      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="I43" t="s">
+        <v>518</v>
+      </c>
+      <c r="J43">
         <v>1015437</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="K43" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -6806,171 +7008,174 @@
         <v>81</v>
       </c>
       <c r="C44" t="s">
-        <v>635</v>
+        <v>665</v>
       </c>
       <c r="D44" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E44" t="s">
+        <v>638</v>
+      </c>
+      <c r="F44" t="s">
         <v>646</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>640</v>
       </c>
-      <c r="G44" t="s">
-        <v>1</v>
-      </c>
       <c r="H44" t="s">
-        <v>518</v>
-      </c>
-      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="I44" t="s">
+        <v>518</v>
+      </c>
+      <c r="J44">
         <v>24</v>
       </c>
-      <c r="J44" s="1" t="s">
+      <c r="K44" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>82</v>
       </c>
-      <c r="C45" t="s">
-        <v>635</v>
-      </c>
       <c r="D45" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E45" t="s">
+        <v>638</v>
+      </c>
+      <c r="F45" t="s">
         <v>647</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>640</v>
       </c>
-      <c r="G45" t="s">
-        <v>1</v>
-      </c>
       <c r="H45" t="s">
-        <v>518</v>
-      </c>
-      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="I45" t="s">
+        <v>518</v>
+      </c>
+      <c r="J45">
         <v>60</v>
       </c>
-      <c r="J45" s="1" t="s">
+      <c r="K45" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>85</v>
       </c>
-      <c r="C46" t="s">
-        <v>635</v>
-      </c>
       <c r="D46" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E46" t="s">
+        <v>638</v>
+      </c>
+      <c r="F46" t="s">
         <v>648</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>644</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>42</v>
       </c>
-      <c r="H46" t="s">
-        <v>518</v>
-      </c>
-      <c r="I46">
+      <c r="I46" t="s">
+        <v>518</v>
+      </c>
+      <c r="J46">
         <v>2</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="K46" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="K46" t="s">
+      <c r="L46" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>86</v>
       </c>
-      <c r="C47" t="s">
-        <v>635</v>
-      </c>
       <c r="D47" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E47" t="s">
+        <v>638</v>
+      </c>
+      <c r="F47" t="s">
         <v>648</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>644</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>42</v>
       </c>
-      <c r="H47" t="s">
-        <v>518</v>
-      </c>
-      <c r="I47">
+      <c r="I47" t="s">
+        <v>518</v>
+      </c>
+      <c r="J47">
         <v>2</v>
       </c>
-      <c r="J47" s="1" t="s">
+      <c r="K47" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="K47" t="s">
+      <c r="L47" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>87</v>
       </c>
-      <c r="C48" t="s">
-        <v>635</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="D48" t="s">
+        <v>635</v>
+      </c>
+      <c r="F48" t="s">
         <v>647</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>641</v>
       </c>
-      <c r="G48" t="s">
-        <v>6</v>
-      </c>
       <c r="H48" t="s">
-        <v>518</v>
-      </c>
-      <c r="I48">
+        <v>6</v>
+      </c>
+      <c r="I48" t="s">
+        <v>518</v>
+      </c>
+      <c r="J48">
         <v>28942</v>
       </c>
-      <c r="J48" s="1" t="s">
+      <c r="K48" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="K48" t="s">
+      <c r="L48" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -6978,174 +7183,177 @@
         <v>89</v>
       </c>
       <c r="C49" t="s">
-        <v>635</v>
+        <v>691</v>
       </c>
       <c r="D49" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E49" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="F49" t="s">
+        <v>648</v>
+      </c>
+      <c r="G49" t="s">
         <v>641</v>
       </c>
-      <c r="G49" t="s">
-        <v>6</v>
-      </c>
       <c r="H49" t="s">
-        <v>518</v>
-      </c>
-      <c r="I49">
+        <v>6</v>
+      </c>
+      <c r="I49" t="s">
+        <v>518</v>
+      </c>
+      <c r="J49">
         <v>2571</v>
       </c>
-      <c r="J49" s="1" t="s">
+      <c r="K49" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="K49" t="s">
+      <c r="L49" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>90</v>
       </c>
-      <c r="C50" t="s">
-        <v>635</v>
-      </c>
       <c r="D50" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E50" t="s">
+        <v>638</v>
+      </c>
+      <c r="F50" t="s">
         <v>647</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>641</v>
       </c>
-      <c r="G50" t="s">
-        <v>6</v>
-      </c>
       <c r="H50" t="s">
-        <v>518</v>
-      </c>
-      <c r="I50">
+        <v>6</v>
+      </c>
+      <c r="I50" t="s">
+        <v>518</v>
+      </c>
+      <c r="J50">
         <v>2</v>
       </c>
-      <c r="J50" s="1" t="s">
+      <c r="K50" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="K50" t="s">
+      <c r="L50" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>91</v>
       </c>
-      <c r="C51" t="s">
-        <v>635</v>
-      </c>
       <c r="D51" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E51" t="s">
+        <v>638</v>
+      </c>
+      <c r="F51" t="s">
         <v>647</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>641</v>
       </c>
-      <c r="G51" t="s">
-        <v>6</v>
-      </c>
       <c r="H51" t="s">
-        <v>518</v>
-      </c>
-      <c r="I51">
+        <v>6</v>
+      </c>
+      <c r="I51" t="s">
+        <v>518</v>
+      </c>
+      <c r="J51">
         <v>1678</v>
       </c>
-      <c r="J51" s="1" t="s">
+      <c r="K51" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="K51" t="s">
+      <c r="L51" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>92</v>
       </c>
-      <c r="C52" t="s">
-        <v>635</v>
-      </c>
       <c r="D52" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E52" t="s">
+        <v>638</v>
+      </c>
+      <c r="F52" t="s">
         <v>648</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>641</v>
       </c>
-      <c r="G52" t="s">
-        <v>6</v>
-      </c>
       <c r="H52" t="s">
-        <v>518</v>
-      </c>
-      <c r="I52">
+        <v>6</v>
+      </c>
+      <c r="I52" t="s">
+        <v>518</v>
+      </c>
+      <c r="J52">
         <v>13</v>
       </c>
-      <c r="J52" s="1" t="s">
+      <c r="K52" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="K52" t="s">
+      <c r="L52" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>93</v>
       </c>
-      <c r="C53" t="s">
-        <v>635</v>
-      </c>
       <c r="D53" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E53" t="s">
+        <v>638</v>
+      </c>
+      <c r="F53" t="s">
         <v>647</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>641</v>
       </c>
-      <c r="G53" t="s">
-        <v>6</v>
-      </c>
       <c r="H53" t="s">
-        <v>518</v>
-      </c>
-      <c r="I53">
+        <v>6</v>
+      </c>
+      <c r="I53" t="s">
+        <v>518</v>
+      </c>
+      <c r="J53">
         <v>2</v>
       </c>
-      <c r="J53" s="1" t="s">
+      <c r="K53" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="K53" t="s">
+      <c r="L53" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -7153,34 +7361,37 @@
         <v>94</v>
       </c>
       <c r="C54" t="s">
-        <v>635</v>
+        <v>692</v>
       </c>
       <c r="D54" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E54" t="s">
+        <v>638</v>
+      </c>
+      <c r="F54" t="s">
         <v>648</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>641</v>
       </c>
-      <c r="G54" t="s">
-        <v>6</v>
-      </c>
       <c r="H54" t="s">
-        <v>518</v>
-      </c>
-      <c r="I54">
+        <v>6</v>
+      </c>
+      <c r="I54" t="s">
+        <v>518</v>
+      </c>
+      <c r="J54">
         <v>47</v>
       </c>
-      <c r="J54" s="1" t="s">
+      <c r="K54" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="K54" t="s">
+      <c r="L54" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -7188,34 +7399,37 @@
         <v>95</v>
       </c>
       <c r="C55" t="s">
-        <v>635</v>
+        <v>693</v>
       </c>
       <c r="D55" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E55" t="s">
+        <v>638</v>
+      </c>
+      <c r="F55" t="s">
         <v>648</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>641</v>
       </c>
-      <c r="G55" t="s">
-        <v>6</v>
-      </c>
       <c r="H55" t="s">
-        <v>518</v>
-      </c>
-      <c r="I55">
+        <v>6</v>
+      </c>
+      <c r="I55" t="s">
+        <v>518</v>
+      </c>
+      <c r="J55">
         <v>127</v>
       </c>
-      <c r="J55" s="1" t="s">
+      <c r="K55" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="K55" t="s">
+      <c r="L55" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -7223,34 +7437,37 @@
         <v>96</v>
       </c>
       <c r="C56" t="s">
-        <v>635</v>
+        <v>694</v>
       </c>
       <c r="D56" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E56" t="s">
+        <v>638</v>
+      </c>
+      <c r="F56" t="s">
         <v>648</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>641</v>
       </c>
-      <c r="G56" t="s">
-        <v>6</v>
-      </c>
       <c r="H56" t="s">
-        <v>518</v>
-      </c>
-      <c r="I56">
+        <v>6</v>
+      </c>
+      <c r="I56" t="s">
+        <v>518</v>
+      </c>
+      <c r="J56">
         <v>510</v>
       </c>
-      <c r="J56" s="1" t="s">
+      <c r="K56" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="K56" t="s">
+      <c r="L56" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -7258,34 +7475,37 @@
         <v>97</v>
       </c>
       <c r="C57" t="s">
-        <v>635</v>
+        <v>695</v>
       </c>
       <c r="D57" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E57" t="s">
+        <v>638</v>
+      </c>
+      <c r="F57" t="s">
         <v>648</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>641</v>
       </c>
-      <c r="G57" t="s">
-        <v>6</v>
-      </c>
       <c r="H57" t="s">
-        <v>518</v>
-      </c>
-      <c r="I57">
+        <v>6</v>
+      </c>
+      <c r="I57" t="s">
+        <v>518</v>
+      </c>
+      <c r="J57">
         <v>1822</v>
       </c>
-      <c r="J57" s="1" t="s">
+      <c r="K57" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="K57" t="s">
+      <c r="L57" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -7293,34 +7513,37 @@
         <v>99</v>
       </c>
       <c r="C58" t="s">
+        <v>674</v>
+      </c>
+      <c r="D58" t="s">
         <v>634</v>
       </c>
-      <c r="D58" t="s">
-        <v>638</v>
-      </c>
       <c r="E58" t="s">
+        <v>638</v>
+      </c>
+      <c r="F58" t="s">
         <v>646</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>653</v>
       </c>
-      <c r="G58" t="s">
-        <v>6</v>
-      </c>
       <c r="H58" t="s">
-        <v>518</v>
-      </c>
-      <c r="I58">
+        <v>6</v>
+      </c>
+      <c r="I58" t="s">
+        <v>518</v>
+      </c>
+      <c r="J58">
         <v>11553</v>
       </c>
-      <c r="J58" s="1" t="s">
+      <c r="K58" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="K58" t="s">
+      <c r="L58" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -7328,594 +7551,597 @@
         <v>100</v>
       </c>
       <c r="C59" t="s">
+        <v>682</v>
+      </c>
+      <c r="D59" t="s">
         <v>634</v>
       </c>
-      <c r="D59" t="s">
-        <v>638</v>
-      </c>
       <c r="E59" t="s">
+        <v>638</v>
+      </c>
+      <c r="F59" t="s">
         <v>647</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>640</v>
       </c>
-      <c r="G59" t="s">
-        <v>1</v>
-      </c>
       <c r="H59" t="s">
-        <v>518</v>
-      </c>
-      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="I59" t="s">
+        <v>518</v>
+      </c>
+      <c r="J59">
         <v>6744</v>
       </c>
-      <c r="J59" s="1" t="s">
+      <c r="K59" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="K59" t="s">
+      <c r="L59" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>101</v>
       </c>
-      <c r="C60" t="s">
-        <v>635</v>
-      </c>
       <c r="D60" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E60" t="s">
+        <v>638</v>
+      </c>
+      <c r="F60" t="s">
         <v>647</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>640</v>
       </c>
-      <c r="G60" t="s">
-        <v>1</v>
-      </c>
       <c r="H60" t="s">
-        <v>518</v>
-      </c>
-      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="I60" t="s">
+        <v>518</v>
+      </c>
+      <c r="J60">
         <v>3237</v>
       </c>
-      <c r="J60" s="1" t="s">
+      <c r="K60" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="K60" t="s">
+      <c r="L60" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>102</v>
       </c>
-      <c r="C61" t="s">
-        <v>635</v>
-      </c>
       <c r="D61" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E61" t="s">
+        <v>638</v>
+      </c>
+      <c r="F61" t="s">
         <v>647</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>640</v>
       </c>
-      <c r="G61" t="s">
-        <v>1</v>
-      </c>
       <c r="H61" t="s">
-        <v>518</v>
-      </c>
-      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="I61" t="s">
+        <v>518</v>
+      </c>
+      <c r="J61">
         <v>1145</v>
       </c>
-      <c r="J61" s="1" t="s">
+      <c r="K61" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="K61" t="s">
+      <c r="L61" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>103</v>
       </c>
-      <c r="C62" t="s">
-        <v>635</v>
-      </c>
       <c r="D62" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E62" t="s">
+        <v>638</v>
+      </c>
+      <c r="F62" t="s">
         <v>647</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>641</v>
       </c>
-      <c r="G62" t="s">
-        <v>6</v>
-      </c>
       <c r="H62" t="s">
-        <v>518</v>
-      </c>
-      <c r="I62">
+        <v>6</v>
+      </c>
+      <c r="I62" t="s">
+        <v>518</v>
+      </c>
+      <c r="J62">
         <v>3</v>
       </c>
-      <c r="J62" s="1" t="s">
+      <c r="K62" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="K62" t="s">
+      <c r="L62" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>104</v>
       </c>
-      <c r="C63" t="s">
-        <v>635</v>
-      </c>
       <c r="D63" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E63" t="s">
+        <v>638</v>
+      </c>
+      <c r="F63" t="s">
         <v>647</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>641</v>
       </c>
-      <c r="G63" t="s">
-        <v>6</v>
-      </c>
       <c r="H63" t="s">
-        <v>518</v>
-      </c>
-      <c r="I63">
+        <v>6</v>
+      </c>
+      <c r="I63" t="s">
+        <v>518</v>
+      </c>
+      <c r="J63">
         <v>2</v>
       </c>
-      <c r="J63" s="1" t="s">
+      <c r="K63" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="K63" t="s">
+      <c r="L63" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>105</v>
       </c>
-      <c r="C64" t="s">
-        <v>635</v>
-      </c>
       <c r="D64" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E64" t="s">
+        <v>638</v>
+      </c>
+      <c r="F64" t="s">
         <v>647</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>640</v>
       </c>
-      <c r="G64" t="s">
-        <v>1</v>
-      </c>
       <c r="H64" t="s">
-        <v>518</v>
-      </c>
-      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="I64" t="s">
+        <v>518</v>
+      </c>
+      <c r="J64">
         <v>6744</v>
       </c>
-      <c r="J64" s="1" t="s">
+      <c r="K64" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="K64" t="s">
+      <c r="L64" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>106</v>
       </c>
-      <c r="C65" t="s">
-        <v>635</v>
-      </c>
       <c r="D65" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E65" t="s">
+        <v>638</v>
+      </c>
+      <c r="F65" t="s">
         <v>647</v>
       </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>640</v>
       </c>
-      <c r="G65" t="s">
-        <v>1</v>
-      </c>
       <c r="H65" t="s">
-        <v>518</v>
-      </c>
-      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="I65" t="s">
+        <v>518</v>
+      </c>
+      <c r="J65">
         <v>3237</v>
       </c>
-      <c r="J65" s="1" t="s">
+      <c r="K65" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="K65" t="s">
+      <c r="L65" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>107</v>
       </c>
-      <c r="C66" t="s">
-        <v>635</v>
-      </c>
       <c r="D66" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E66" t="s">
+        <v>638</v>
+      </c>
+      <c r="F66" t="s">
         <v>647</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>640</v>
       </c>
-      <c r="G66" t="s">
-        <v>1</v>
-      </c>
       <c r="H66" t="s">
-        <v>518</v>
-      </c>
-      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="I66" t="s">
+        <v>518</v>
+      </c>
+      <c r="J66">
         <v>1145</v>
       </c>
-      <c r="J66" s="1" t="s">
+      <c r="K66" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="K66" t="s">
+      <c r="L66" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>108</v>
       </c>
-      <c r="C67" t="s">
-        <v>635</v>
-      </c>
       <c r="D67" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E67" t="s">
+        <v>638</v>
+      </c>
+      <c r="F67" t="s">
         <v>647</v>
       </c>
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>641</v>
       </c>
-      <c r="G67" t="s">
-        <v>6</v>
-      </c>
       <c r="H67" t="s">
-        <v>518</v>
-      </c>
-      <c r="I67">
+        <v>6</v>
+      </c>
+      <c r="I67" t="s">
+        <v>518</v>
+      </c>
+      <c r="J67">
         <v>40</v>
       </c>
-      <c r="J67" s="1" t="s">
+      <c r="K67" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="K67" t="s">
+      <c r="L67" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>110</v>
       </c>
-      <c r="C68" t="s">
-        <v>635</v>
-      </c>
       <c r="D68" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E68" t="s">
+        <v>638</v>
+      </c>
+      <c r="F68" t="s">
         <v>647</v>
       </c>
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>652</v>
       </c>
-      <c r="G68" t="s">
-        <v>6</v>
-      </c>
       <c r="H68" t="s">
-        <v>518</v>
-      </c>
-      <c r="I68">
+        <v>6</v>
+      </c>
+      <c r="I68" t="s">
+        <v>518</v>
+      </c>
+      <c r="J68">
         <v>11553</v>
       </c>
-      <c r="J68" s="1" t="s">
+      <c r="K68" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="K68" t="s">
+      <c r="L68" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>116</v>
       </c>
-      <c r="C69" t="s">
-        <v>635</v>
-      </c>
       <c r="D69" t="s">
+        <v>635</v>
+      </c>
+      <c r="E69" t="s">
         <v>637</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>647</v>
       </c>
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>641</v>
       </c>
-      <c r="G69" t="s">
-        <v>6</v>
-      </c>
       <c r="H69" t="s">
-        <v>518</v>
-      </c>
-      <c r="I69">
+        <v>6</v>
+      </c>
+      <c r="I69" t="s">
+        <v>518</v>
+      </c>
+      <c r="J69">
         <v>2</v>
       </c>
-      <c r="J69" s="1" t="s">
+      <c r="K69" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="K69" t="s">
+      <c r="L69" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>125</v>
       </c>
-      <c r="C70" t="s">
-        <v>635</v>
-      </c>
       <c r="D70" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E70" t="s">
+        <v>638</v>
+      </c>
+      <c r="F70" t="s">
         <v>647</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>641</v>
       </c>
-      <c r="G70" t="s">
-        <v>6</v>
-      </c>
       <c r="H70" t="s">
-        <v>518</v>
-      </c>
-      <c r="I70">
+        <v>6</v>
+      </c>
+      <c r="I70" t="s">
+        <v>518</v>
+      </c>
+      <c r="J70">
         <v>2582</v>
       </c>
-      <c r="J70" s="1" t="s">
+      <c r="K70" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="K70" t="s">
+      <c r="L70" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>126</v>
       </c>
-      <c r="C71" t="s">
-        <v>635</v>
-      </c>
       <c r="D71" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E71" t="s">
+        <v>638</v>
+      </c>
+      <c r="F71" t="s">
         <v>647</v>
       </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>641</v>
       </c>
-      <c r="G71" t="s">
-        <v>6</v>
-      </c>
       <c r="H71" t="s">
-        <v>518</v>
-      </c>
-      <c r="I71">
+        <v>6</v>
+      </c>
+      <c r="I71" t="s">
+        <v>518</v>
+      </c>
+      <c r="J71">
         <v>1293</v>
       </c>
-      <c r="J71" s="1" t="s">
+      <c r="K71" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="K71" t="s">
+      <c r="L71" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>127</v>
       </c>
-      <c r="C72" t="s">
-        <v>635</v>
-      </c>
       <c r="D72" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E72" t="s">
+        <v>638</v>
+      </c>
+      <c r="F72" t="s">
         <v>647</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>641</v>
       </c>
-      <c r="G72" t="s">
-        <v>6</v>
-      </c>
       <c r="H72" t="s">
-        <v>518</v>
-      </c>
-      <c r="I72">
+        <v>6</v>
+      </c>
+      <c r="I72" t="s">
+        <v>518</v>
+      </c>
+      <c r="J72">
         <v>1436</v>
       </c>
-      <c r="J72" s="1" t="s">
+      <c r="K72" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="K72" t="s">
+      <c r="L72" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>135</v>
       </c>
-      <c r="C73" t="s">
-        <v>635</v>
-      </c>
       <c r="D73" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E73" t="s">
+        <v>638</v>
+      </c>
+      <c r="F73" t="s">
         <v>648</v>
       </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>641</v>
       </c>
-      <c r="G73" t="s">
-        <v>6</v>
-      </c>
       <c r="H73" t="s">
-        <v>518</v>
-      </c>
-      <c r="I73">
+        <v>6</v>
+      </c>
+      <c r="I73" t="s">
+        <v>518</v>
+      </c>
+      <c r="J73">
         <v>3</v>
       </c>
-      <c r="J73" s="1" t="s">
+      <c r="K73" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="K73" t="s">
+      <c r="L73" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>136</v>
       </c>
-      <c r="C74" t="s">
-        <v>635</v>
-      </c>
       <c r="D74" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E74" t="s">
+        <v>638</v>
+      </c>
+      <c r="F74" t="s">
         <v>648</v>
       </c>
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>641</v>
       </c>
-      <c r="G74" t="s">
-        <v>6</v>
-      </c>
       <c r="H74" t="s">
-        <v>518</v>
-      </c>
-      <c r="I74">
+        <v>6</v>
+      </c>
+      <c r="I74" t="s">
+        <v>518</v>
+      </c>
+      <c r="J74">
         <v>7</v>
       </c>
-      <c r="J74" s="1" t="s">
+      <c r="K74" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="K74" t="s">
+      <c r="L74" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>137</v>
       </c>
-      <c r="C75" t="s">
-        <v>635</v>
-      </c>
       <c r="D75" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E75" t="s">
+        <v>638</v>
+      </c>
+      <c r="F75" t="s">
         <v>648</v>
       </c>
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>641</v>
       </c>
-      <c r="G75" t="s">
-        <v>6</v>
-      </c>
       <c r="H75" t="s">
-        <v>518</v>
-      </c>
-      <c r="I75">
+        <v>6</v>
+      </c>
+      <c r="I75" t="s">
+        <v>518</v>
+      </c>
+      <c r="J75">
         <v>493</v>
       </c>
-      <c r="J75" s="1" t="s">
+      <c r="K75" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="K75" t="s">
+      <c r="L75" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -7923,34 +8149,37 @@
         <v>140</v>
       </c>
       <c r="C76" t="s">
-        <v>635</v>
+        <v>670</v>
       </c>
       <c r="D76" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E76" t="s">
+        <v>638</v>
+      </c>
+      <c r="F76" t="s">
         <v>646</v>
       </c>
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>653</v>
       </c>
-      <c r="G76" t="s">
-        <v>6</v>
-      </c>
       <c r="H76" t="s">
-        <v>518</v>
-      </c>
-      <c r="I76">
+        <v>6</v>
+      </c>
+      <c r="I76" t="s">
+        <v>518</v>
+      </c>
+      <c r="J76">
         <v>1889</v>
       </c>
-      <c r="J76" s="1" t="s">
+      <c r="K76" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="K76" t="s">
+      <c r="L76" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -7958,34 +8187,37 @@
         <v>141</v>
       </c>
       <c r="C77" t="s">
-        <v>635</v>
+        <v>676</v>
       </c>
       <c r="D77" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E77" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="F77" t="s">
+        <v>646</v>
+      </c>
+      <c r="G77" t="s">
         <v>641</v>
       </c>
-      <c r="G77" t="s">
-        <v>6</v>
-      </c>
       <c r="H77" t="s">
-        <v>518</v>
-      </c>
-      <c r="I77">
+        <v>6</v>
+      </c>
+      <c r="I77" t="s">
+        <v>518</v>
+      </c>
+      <c r="J77">
         <v>622</v>
       </c>
-      <c r="J77" s="1" t="s">
+      <c r="K77" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="K77" t="s">
+      <c r="L77" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -7993,69 +8225,72 @@
         <v>142</v>
       </c>
       <c r="C78" t="s">
-        <v>635</v>
+        <v>675</v>
       </c>
       <c r="D78" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E78" t="s">
+        <v>638</v>
+      </c>
+      <c r="F78" t="s">
         <v>646</v>
       </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>641</v>
       </c>
-      <c r="G78" t="s">
-        <v>6</v>
-      </c>
       <c r="H78" t="s">
-        <v>518</v>
-      </c>
-      <c r="I78">
+        <v>6</v>
+      </c>
+      <c r="I78" t="s">
+        <v>518</v>
+      </c>
+      <c r="J78">
         <v>108</v>
       </c>
-      <c r="J78" s="1" t="s">
+      <c r="K78" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="K78" t="s">
+      <c r="L78" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>143</v>
       </c>
-      <c r="C79" t="s">
-        <v>635</v>
-      </c>
       <c r="D79" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E79" t="s">
+        <v>638</v>
+      </c>
+      <c r="F79" t="s">
         <v>648</v>
       </c>
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>641</v>
       </c>
-      <c r="G79" t="s">
-        <v>6</v>
-      </c>
       <c r="H79" t="s">
-        <v>518</v>
-      </c>
-      <c r="I79">
+        <v>6</v>
+      </c>
+      <c r="I79" t="s">
+        <v>518</v>
+      </c>
+      <c r="J79">
         <v>37</v>
       </c>
-      <c r="J79" s="1" t="s">
+      <c r="K79" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="K79" t="s">
+      <c r="L79" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -8063,104 +8298,107 @@
         <v>144</v>
       </c>
       <c r="C80" t="s">
-        <v>635</v>
+        <v>677</v>
       </c>
       <c r="D80" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E80" t="s">
+        <v>638</v>
+      </c>
+      <c r="F80" t="s">
         <v>646</v>
       </c>
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>641</v>
       </c>
-      <c r="G80" t="s">
-        <v>6</v>
-      </c>
       <c r="H80" t="s">
-        <v>518</v>
-      </c>
-      <c r="I80">
+        <v>6</v>
+      </c>
+      <c r="I80" t="s">
+        <v>518</v>
+      </c>
+      <c r="J80">
         <v>8</v>
       </c>
-      <c r="J80" s="1" t="s">
+      <c r="K80" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="K80" t="s">
+      <c r="L80" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>145</v>
       </c>
-      <c r="C81" t="s">
-        <v>635</v>
-      </c>
       <c r="D81" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E81" t="s">
+        <v>638</v>
+      </c>
+      <c r="F81" t="s">
         <v>647</v>
       </c>
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>640</v>
       </c>
-      <c r="G81" t="s">
-        <v>1</v>
-      </c>
       <c r="H81" t="s">
-        <v>518</v>
-      </c>
-      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="I81" t="s">
+        <v>518</v>
+      </c>
+      <c r="J81">
         <v>11693</v>
       </c>
-      <c r="J81" s="1" t="s">
+      <c r="K81" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="K81" t="s">
+      <c r="L81" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>146</v>
       </c>
-      <c r="C82" t="s">
-        <v>635</v>
-      </c>
       <c r="D82" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E82" t="s">
+        <v>638</v>
+      </c>
+      <c r="F82" t="s">
         <v>647</v>
       </c>
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>640</v>
       </c>
-      <c r="G82" t="s">
-        <v>1</v>
-      </c>
       <c r="H82" t="s">
-        <v>518</v>
-      </c>
-      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="I82" t="s">
+        <v>518</v>
+      </c>
+      <c r="J82">
         <v>11693</v>
       </c>
-      <c r="J82" s="1" t="s">
+      <c r="K82" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="K82" t="s">
+      <c r="L82" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -8168,69 +8406,72 @@
         <v>147</v>
       </c>
       <c r="C83" t="s">
-        <v>635</v>
+        <v>671</v>
       </c>
       <c r="D83" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E83" t="s">
+        <v>638</v>
+      </c>
+      <c r="F83" t="s">
         <v>646</v>
       </c>
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>640</v>
       </c>
-      <c r="G83" t="s">
-        <v>1</v>
-      </c>
       <c r="H83" t="s">
-        <v>518</v>
-      </c>
-      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="I83" t="s">
+        <v>518</v>
+      </c>
+      <c r="J83">
         <v>2752</v>
       </c>
-      <c r="J83" s="1" t="s">
+      <c r="K83" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="K83" t="s">
+      <c r="L83" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>148</v>
       </c>
-      <c r="C84" t="s">
-        <v>635</v>
-      </c>
       <c r="D84" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E84" t="s">
+        <v>638</v>
+      </c>
+      <c r="F84" t="s">
         <v>647</v>
       </c>
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>640</v>
       </c>
-      <c r="G84" t="s">
-        <v>1</v>
-      </c>
       <c r="H84" t="s">
-        <v>518</v>
-      </c>
-      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="I84" t="s">
+        <v>518</v>
+      </c>
+      <c r="J84">
         <v>2752</v>
       </c>
-      <c r="J84" s="1" t="s">
+      <c r="K84" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="K84" t="s">
+      <c r="L84" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -8238,524 +8479,527 @@
         <v>149</v>
       </c>
       <c r="C85" t="s">
-        <v>635</v>
+        <v>678</v>
       </c>
       <c r="D85" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E85" t="s">
+        <v>638</v>
+      </c>
+      <c r="F85" t="s">
         <v>646</v>
       </c>
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>640</v>
       </c>
-      <c r="G85" t="s">
-        <v>1</v>
-      </c>
       <c r="H85" t="s">
-        <v>518</v>
-      </c>
-      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="I85" t="s">
+        <v>518</v>
+      </c>
+      <c r="J85">
         <v>590</v>
       </c>
-      <c r="J85" s="1" t="s">
+      <c r="K85" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="K85" t="s">
+      <c r="L85" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>152</v>
       </c>
-      <c r="C86" t="s">
-        <v>635</v>
-      </c>
       <c r="D86" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E86" t="s">
+        <v>638</v>
+      </c>
+      <c r="F86" t="s">
         <v>647</v>
       </c>
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>644</v>
       </c>
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>42</v>
       </c>
-      <c r="H86" t="s">
-        <v>518</v>
-      </c>
-      <c r="I86">
+      <c r="I86" t="s">
+        <v>518</v>
+      </c>
+      <c r="J86">
         <v>2</v>
       </c>
-      <c r="J86" s="1" t="s">
+      <c r="K86" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="K86" t="s">
+      <c r="L86" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>153</v>
       </c>
-      <c r="C87" t="s">
-        <v>635</v>
-      </c>
       <c r="D87" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E87" t="s">
+        <v>638</v>
+      </c>
+      <c r="F87" t="s">
         <v>647</v>
       </c>
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>644</v>
       </c>
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>42</v>
       </c>
-      <c r="H87" t="s">
-        <v>518</v>
-      </c>
-      <c r="I87">
+      <c r="I87" t="s">
+        <v>518</v>
+      </c>
+      <c r="J87">
         <v>2</v>
       </c>
-      <c r="J87" s="1" t="s">
+      <c r="K87" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="K87" t="s">
+      <c r="L87" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
         <v>160</v>
       </c>
-      <c r="C88" t="s">
-        <v>635</v>
-      </c>
       <c r="D88" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E88" t="s">
+        <v>638</v>
+      </c>
+      <c r="F88" t="s">
         <v>647</v>
       </c>
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>641</v>
       </c>
-      <c r="G88" t="s">
-        <v>6</v>
-      </c>
       <c r="H88" t="s">
-        <v>518</v>
-      </c>
-      <c r="I88">
+        <v>6</v>
+      </c>
+      <c r="I88" t="s">
+        <v>518</v>
+      </c>
+      <c r="J88">
         <v>9</v>
       </c>
-      <c r="J88" s="1" t="s">
+      <c r="K88" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="K88" t="s">
+      <c r="L88" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
         <v>161</v>
       </c>
-      <c r="C89" t="s">
-        <v>635</v>
-      </c>
       <c r="D89" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E89" t="s">
+        <v>638</v>
+      </c>
+      <c r="F89" t="s">
         <v>647</v>
       </c>
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>640</v>
       </c>
-      <c r="G89" t="s">
-        <v>1</v>
-      </c>
       <c r="H89" t="s">
-        <v>518</v>
-      </c>
-      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="I89" t="s">
+        <v>518</v>
+      </c>
+      <c r="J89">
         <v>402</v>
       </c>
-      <c r="J89" s="1" t="s">
+      <c r="K89" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="K89" t="s">
+      <c r="L89" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
         <v>163</v>
       </c>
-      <c r="C90" t="s">
-        <v>635</v>
-      </c>
       <c r="D90" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E90" t="s">
+        <v>638</v>
+      </c>
+      <c r="F90" t="s">
         <v>647</v>
       </c>
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>653</v>
       </c>
-      <c r="G90" t="s">
-        <v>6</v>
-      </c>
       <c r="H90" t="s">
-        <v>518</v>
-      </c>
-      <c r="I90">
+        <v>6</v>
+      </c>
+      <c r="I90" t="s">
+        <v>518</v>
+      </c>
+      <c r="J90">
         <v>25</v>
       </c>
-      <c r="J90" s="1" t="s">
+      <c r="K90" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="K90" t="s">
+      <c r="L90" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>164</v>
       </c>
-      <c r="C91" t="s">
-        <v>635</v>
-      </c>
       <c r="D91" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E91" t="s">
+        <v>638</v>
+      </c>
+      <c r="F91" t="s">
         <v>647</v>
       </c>
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>641</v>
       </c>
-      <c r="G91" t="s">
-        <v>6</v>
-      </c>
       <c r="H91" t="s">
-        <v>518</v>
-      </c>
-      <c r="I91">
+        <v>6</v>
+      </c>
+      <c r="I91" t="s">
+        <v>518</v>
+      </c>
+      <c r="J91">
         <v>19</v>
       </c>
-      <c r="J91" s="1" t="s">
+      <c r="K91" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="K91" t="s">
+      <c r="L91" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>165</v>
       </c>
-      <c r="C92" t="s">
-        <v>635</v>
-      </c>
       <c r="D92" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E92" t="s">
+        <v>638</v>
+      </c>
+      <c r="F92" t="s">
         <v>647</v>
       </c>
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>641</v>
       </c>
-      <c r="G92" t="s">
-        <v>6</v>
-      </c>
       <c r="H92" t="s">
-        <v>518</v>
-      </c>
-      <c r="I92">
+        <v>6</v>
+      </c>
+      <c r="I92" t="s">
+        <v>518</v>
+      </c>
+      <c r="J92">
         <v>23</v>
       </c>
-      <c r="J92" s="1" t="s">
+      <c r="K92" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="K92" t="s">
+      <c r="L92" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>166</v>
       </c>
-      <c r="C93" t="s">
-        <v>635</v>
-      </c>
       <c r="D93" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E93" t="s">
+        <v>638</v>
+      </c>
+      <c r="F93" t="s">
         <v>647</v>
       </c>
-      <c r="F93" t="s">
+      <c r="G93" t="s">
         <v>641</v>
       </c>
-      <c r="G93" t="s">
-        <v>6</v>
-      </c>
       <c r="H93" t="s">
-        <v>518</v>
-      </c>
-      <c r="I93">
+        <v>6</v>
+      </c>
+      <c r="I93" t="s">
+        <v>518</v>
+      </c>
+      <c r="J93">
         <v>18</v>
       </c>
-      <c r="J93" s="1" t="s">
+      <c r="K93" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="K93" t="s">
+      <c r="L93" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
         <v>168</v>
       </c>
-      <c r="C94" t="s">
-        <v>635</v>
-      </c>
       <c r="D94" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E94" t="s">
+        <v>638</v>
+      </c>
+      <c r="F94" t="s">
         <v>647</v>
       </c>
-      <c r="F94" t="s">
+      <c r="G94" t="s">
         <v>641</v>
       </c>
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>42</v>
       </c>
-      <c r="H94" t="s">
-        <v>518</v>
-      </c>
-      <c r="I94">
+      <c r="I94" t="s">
+        <v>518</v>
+      </c>
+      <c r="J94">
         <v>2</v>
       </c>
-      <c r="J94" s="1" t="s">
+      <c r="K94" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="K94" t="s">
+      <c r="L94" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
         <v>169</v>
       </c>
-      <c r="C95" t="s">
-        <v>635</v>
-      </c>
       <c r="D95" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E95" t="s">
+        <v>638</v>
+      </c>
+      <c r="F95" t="s">
         <v>647</v>
       </c>
-      <c r="F95" t="s">
+      <c r="G95" t="s">
         <v>641</v>
       </c>
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>42</v>
       </c>
-      <c r="H95" t="s">
-        <v>518</v>
-      </c>
-      <c r="I95">
+      <c r="I95" t="s">
+        <v>518</v>
+      </c>
+      <c r="J95">
         <v>2</v>
       </c>
-      <c r="J95" s="1" t="s">
+      <c r="K95" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="K95" t="s">
+      <c r="L95" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="172.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" ht="172.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>174</v>
       </c>
-      <c r="C96" t="s">
-        <v>635</v>
-      </c>
       <c r="D96" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E96" t="s">
+        <v>638</v>
+      </c>
+      <c r="F96" t="s">
         <v>648</v>
       </c>
-      <c r="F96" t="s">
+      <c r="G96" t="s">
         <v>641</v>
       </c>
-      <c r="G96" t="s">
-        <v>6</v>
-      </c>
       <c r="H96" t="s">
-        <v>518</v>
-      </c>
-      <c r="I96">
+        <v>6</v>
+      </c>
+      <c r="I96" t="s">
+        <v>518</v>
+      </c>
+      <c r="J96">
         <v>7</v>
       </c>
-      <c r="J96" s="1" t="s">
+      <c r="K96" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="K96" t="s">
+      <c r="L96" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
         <v>175</v>
       </c>
-      <c r="C97" t="s">
-        <v>635</v>
-      </c>
       <c r="D97" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E97" t="s">
+        <v>638</v>
+      </c>
+      <c r="F97" t="s">
         <v>647</v>
       </c>
-      <c r="F97" t="s">
+      <c r="G97" t="s">
         <v>641</v>
       </c>
-      <c r="G97" t="s">
-        <v>1</v>
-      </c>
       <c r="H97" t="s">
-        <v>518</v>
-      </c>
-      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="I97" t="s">
+        <v>518</v>
+      </c>
+      <c r="J97">
         <v>3</v>
       </c>
-      <c r="J97" s="1" t="s">
+      <c r="K97" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="K97" t="s">
+      <c r="L97" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
         <v>176</v>
       </c>
-      <c r="C98" t="s">
-        <v>635</v>
-      </c>
       <c r="D98" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E98" t="s">
+        <v>638</v>
+      </c>
+      <c r="F98" t="s">
         <v>647</v>
       </c>
-      <c r="F98" t="s">
+      <c r="G98" t="s">
         <v>641</v>
       </c>
-      <c r="G98" t="s">
-        <v>6</v>
-      </c>
       <c r="H98" t="s">
-        <v>518</v>
-      </c>
-      <c r="I98">
+        <v>6</v>
+      </c>
+      <c r="I98" t="s">
+        <v>518</v>
+      </c>
+      <c r="J98">
         <v>4</v>
       </c>
-      <c r="J98" s="1" t="s">
+      <c r="K98" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="K98" t="s">
+      <c r="L98" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" ht="57.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
         <v>219</v>
       </c>
-      <c r="C99" t="s">
-        <v>635</v>
-      </c>
       <c r="D99" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E99" t="s">
+        <v>638</v>
+      </c>
+      <c r="F99" t="s">
         <v>647</v>
       </c>
-      <c r="F99" t="s">
+      <c r="G99" t="s">
         <v>641</v>
       </c>
-      <c r="G99" t="s">
-        <v>6</v>
-      </c>
       <c r="H99" t="s">
-        <v>518</v>
-      </c>
-      <c r="I99">
+        <v>6</v>
+      </c>
+      <c r="I99" t="s">
+        <v>518</v>
+      </c>
+      <c r="J99">
         <v>2</v>
       </c>
-      <c r="J99" s="1" t="s">
+      <c r="K99" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="K99" t="s">
+      <c r="L99" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -8763,34 +9007,37 @@
         <v>225</v>
       </c>
       <c r="C100" t="s">
-        <v>635</v>
+        <v>669</v>
       </c>
       <c r="D100" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E100" t="s">
+        <v>638</v>
+      </c>
+      <c r="F100" t="s">
         <v>646</v>
       </c>
-      <c r="F100" t="s">
+      <c r="G100" t="s">
         <v>641</v>
       </c>
-      <c r="G100" t="s">
-        <v>6</v>
-      </c>
       <c r="H100" t="s">
-        <v>518</v>
-      </c>
-      <c r="I100">
+        <v>6</v>
+      </c>
+      <c r="I100" t="s">
+        <v>518</v>
+      </c>
+      <c r="J100">
         <v>16</v>
       </c>
-      <c r="J100" s="1" t="s">
+      <c r="K100" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="K100" t="s">
+      <c r="L100" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -8798,419 +9045,422 @@
         <v>227</v>
       </c>
       <c r="C101" t="s">
-        <v>635</v>
+        <v>679</v>
       </c>
       <c r="D101" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E101" t="s">
+        <v>638</v>
+      </c>
+      <c r="F101" t="s">
         <v>646</v>
       </c>
-      <c r="F101" t="s">
-        <v>641</v>
-      </c>
       <c r="G101" t="s">
-        <v>6</v>
+        <v>644</v>
       </c>
       <c r="H101" t="s">
-        <v>518</v>
-      </c>
-      <c r="I101">
+        <v>6</v>
+      </c>
+      <c r="I101" t="s">
+        <v>518</v>
+      </c>
+      <c r="J101">
         <v>2</v>
       </c>
-      <c r="J101" s="1" t="s">
+      <c r="K101" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="K101" t="s">
+      <c r="L101" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
         <v>230</v>
       </c>
-      <c r="C102" t="s">
-        <v>635</v>
-      </c>
       <c r="D102" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E102" t="s">
+        <v>638</v>
+      </c>
+      <c r="F102" t="s">
         <v>647</v>
       </c>
-      <c r="F102" t="s">
+      <c r="G102" t="s">
         <v>640</v>
       </c>
-      <c r="G102" t="s">
-        <v>1</v>
-      </c>
       <c r="H102" t="s">
-        <v>518</v>
-      </c>
-      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="I102" t="s">
+        <v>518</v>
+      </c>
+      <c r="J102">
         <v>368</v>
       </c>
-      <c r="J102" s="1" t="s">
+      <c r="K102" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="K102" t="s">
+      <c r="L102" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
         <v>231</v>
       </c>
-      <c r="C103" t="s">
-        <v>635</v>
-      </c>
       <c r="D103" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E103" t="s">
+        <v>638</v>
+      </c>
+      <c r="F103" t="s">
         <v>647</v>
       </c>
-      <c r="F103" t="s">
+      <c r="G103" t="s">
         <v>640</v>
       </c>
-      <c r="G103" t="s">
-        <v>1</v>
-      </c>
       <c r="H103" t="s">
-        <v>518</v>
-      </c>
-      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="I103" t="s">
+        <v>518</v>
+      </c>
+      <c r="J103">
         <v>10606</v>
       </c>
-      <c r="J103" s="1" t="s">
+      <c r="K103" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="K103" t="s">
+      <c r="L103" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
         <v>232</v>
       </c>
-      <c r="C104" t="s">
-        <v>635</v>
-      </c>
       <c r="D104" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E104" t="s">
+        <v>638</v>
+      </c>
+      <c r="F104" t="s">
         <v>647</v>
       </c>
-      <c r="F104" t="s">
+      <c r="G104" t="s">
         <v>640</v>
       </c>
-      <c r="G104" t="s">
-        <v>1</v>
-      </c>
       <c r="H104" t="s">
-        <v>518</v>
-      </c>
-      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="I104" t="s">
+        <v>518</v>
+      </c>
+      <c r="J104">
         <v>1764</v>
       </c>
-      <c r="J104" s="1" t="s">
+      <c r="K104" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="K104" t="s">
+      <c r="L104" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
         <v>233</v>
       </c>
-      <c r="C105" t="s">
-        <v>635</v>
-      </c>
       <c r="D105" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E105" t="s">
+        <v>638</v>
+      </c>
+      <c r="F105" t="s">
         <v>647</v>
       </c>
-      <c r="F105" t="s">
+      <c r="G105" t="s">
         <v>640</v>
       </c>
-      <c r="G105" t="s">
-        <v>1</v>
-      </c>
       <c r="H105" t="s">
-        <v>518</v>
-      </c>
-      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="I105" t="s">
+        <v>518</v>
+      </c>
+      <c r="J105">
         <v>2445</v>
       </c>
-      <c r="J105" s="1" t="s">
+      <c r="K105" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="K105" t="s">
+      <c r="L105" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
         <v>234</v>
       </c>
-      <c r="C106" t="s">
-        <v>635</v>
-      </c>
       <c r="D106" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E106" t="s">
+        <v>638</v>
+      </c>
+      <c r="F106" t="s">
         <v>647</v>
       </c>
-      <c r="F106" t="s">
+      <c r="G106" t="s">
         <v>640</v>
       </c>
-      <c r="G106" t="s">
-        <v>1</v>
-      </c>
       <c r="H106" t="s">
-        <v>518</v>
-      </c>
-      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="I106" t="s">
+        <v>518</v>
+      </c>
+      <c r="J106">
         <v>368</v>
       </c>
-      <c r="J106" s="1" t="s">
+      <c r="K106" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="K106" t="s">
+      <c r="L106" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
         <v>235</v>
       </c>
-      <c r="C107" t="s">
-        <v>635</v>
-      </c>
       <c r="D107" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E107" t="s">
+        <v>638</v>
+      </c>
+      <c r="F107" t="s">
         <v>647</v>
       </c>
-      <c r="F107" t="s">
+      <c r="G107" t="s">
         <v>640</v>
       </c>
-      <c r="G107" t="s">
-        <v>1</v>
-      </c>
       <c r="H107" t="s">
-        <v>518</v>
-      </c>
-      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="I107" t="s">
+        <v>518</v>
+      </c>
+      <c r="J107">
         <v>1290</v>
       </c>
-      <c r="J107" s="1" t="s">
+      <c r="K107" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="K107" t="s">
+      <c r="L107" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
         <v>236</v>
       </c>
-      <c r="C108" t="s">
-        <v>635</v>
-      </c>
       <c r="D108" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E108" t="s">
+        <v>638</v>
+      </c>
+      <c r="F108" t="s">
         <v>647</v>
       </c>
-      <c r="F108" t="s">
+      <c r="G108" t="s">
         <v>640</v>
       </c>
-      <c r="G108" t="s">
-        <v>1</v>
-      </c>
       <c r="H108" t="s">
-        <v>518</v>
-      </c>
-      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="I108" t="s">
+        <v>518</v>
+      </c>
+      <c r="J108">
         <v>1783</v>
       </c>
-      <c r="J108" s="1" t="s">
+      <c r="K108" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="K108" t="s">
+      <c r="L108" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
         <v>237</v>
       </c>
-      <c r="C109" t="s">
-        <v>635</v>
-      </c>
       <c r="D109" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E109" t="s">
+        <v>638</v>
+      </c>
+      <c r="F109" t="s">
         <v>647</v>
       </c>
-      <c r="F109" t="s">
+      <c r="G109" t="s">
         <v>640</v>
       </c>
-      <c r="G109" t="s">
-        <v>1</v>
-      </c>
       <c r="H109" t="s">
-        <v>518</v>
-      </c>
-      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="I109" t="s">
+        <v>518</v>
+      </c>
+      <c r="J109">
         <v>4473</v>
       </c>
-      <c r="J109" s="1" t="s">
+      <c r="K109" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="K109" t="s">
+      <c r="L109" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
         <v>238</v>
       </c>
-      <c r="C110" t="s">
-        <v>635</v>
-      </c>
       <c r="D110" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E110" t="s">
+        <v>638</v>
+      </c>
+      <c r="F110" t="s">
         <v>647</v>
       </c>
-      <c r="F110" t="s">
+      <c r="G110" t="s">
         <v>640</v>
       </c>
-      <c r="G110" t="s">
-        <v>1</v>
-      </c>
       <c r="H110" t="s">
-        <v>518</v>
-      </c>
-      <c r="I110">
+        <v>1</v>
+      </c>
+      <c r="I110" t="s">
+        <v>518</v>
+      </c>
+      <c r="J110">
         <v>368</v>
       </c>
-      <c r="J110" s="1" t="s">
+      <c r="K110" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="K110" t="s">
+      <c r="L110" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
         <v>239</v>
       </c>
-      <c r="C111" t="s">
-        <v>635</v>
-      </c>
       <c r="D111" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E111" t="s">
+        <v>638</v>
+      </c>
+      <c r="F111" t="s">
         <v>647</v>
       </c>
-      <c r="F111" t="s">
+      <c r="G111" t="s">
         <v>640</v>
       </c>
-      <c r="G111" t="s">
-        <v>1</v>
-      </c>
       <c r="H111" t="s">
-        <v>518</v>
-      </c>
-      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="I111" t="s">
+        <v>518</v>
+      </c>
+      <c r="J111">
         <v>8339</v>
       </c>
-      <c r="J111" s="1" t="s">
+      <c r="K111" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="K111" t="s">
+      <c r="L111" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" ht="43.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="s">
         <v>240</v>
       </c>
-      <c r="C112" t="s">
-        <v>635</v>
-      </c>
       <c r="D112" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E112" t="s">
+        <v>638</v>
+      </c>
+      <c r="F112" t="s">
         <v>647</v>
       </c>
-      <c r="F112" t="s">
+      <c r="G112" t="s">
         <v>640</v>
       </c>
-      <c r="G112" t="s">
-        <v>1</v>
-      </c>
       <c r="H112" t="s">
-        <v>518</v>
-      </c>
-      <c r="I112">
+        <v>1</v>
+      </c>
+      <c r="I112" t="s">
+        <v>518</v>
+      </c>
+      <c r="J112">
         <v>8383</v>
       </c>
-      <c r="J112" s="1" t="s">
+      <c r="K112" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="K112" t="s">
+      <c r="L112" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -9218,34 +9468,37 @@
         <v>522</v>
       </c>
       <c r="C113" t="s">
-        <v>635</v>
+        <v>688</v>
       </c>
       <c r="D113" t="s">
+        <v>635</v>
+      </c>
+      <c r="E113" t="s">
         <v>643</v>
       </c>
-      <c r="E113" t="s">
+      <c r="F113" t="s">
         <v>646</v>
       </c>
-      <c r="F113" t="s">
+      <c r="G113" t="s">
         <v>641</v>
       </c>
-      <c r="G113" t="s">
-        <v>6</v>
-      </c>
       <c r="H113" t="s">
-        <v>518</v>
-      </c>
-      <c r="I113">
+        <v>6</v>
+      </c>
+      <c r="I113" t="s">
+        <v>518</v>
+      </c>
+      <c r="J113">
         <v>4</v>
       </c>
-      <c r="J113" s="1" t="s">
+      <c r="K113" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="K113" t="s">
+      <c r="L113" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -9253,69 +9506,72 @@
         <v>524</v>
       </c>
       <c r="C114" t="s">
-        <v>635</v>
+        <v>690</v>
       </c>
       <c r="D114" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E114" t="s">
+        <v>638</v>
+      </c>
+      <c r="F114" t="s">
         <v>646</v>
       </c>
-      <c r="F114" t="s">
+      <c r="G114" t="s">
         <v>641</v>
       </c>
-      <c r="G114" t="s">
-        <v>6</v>
-      </c>
       <c r="H114" t="s">
-        <v>518</v>
-      </c>
-      <c r="I114">
+        <v>6</v>
+      </c>
+      <c r="I114" t="s">
+        <v>518</v>
+      </c>
+      <c r="J114">
         <v>10</v>
       </c>
-      <c r="J114" s="1" t="s">
+      <c r="K114" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="K114" t="s">
+      <c r="L114" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
         <v>525</v>
       </c>
-      <c r="C115" t="s">
-        <v>635</v>
-      </c>
       <c r="D115" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E115" t="s">
+        <v>638</v>
+      </c>
+      <c r="F115" t="s">
         <v>647</v>
       </c>
-      <c r="F115" t="s">
+      <c r="G115" t="s">
         <v>641</v>
       </c>
-      <c r="G115" t="s">
-        <v>6</v>
-      </c>
       <c r="H115" t="s">
-        <v>518</v>
-      </c>
-      <c r="I115">
+        <v>6</v>
+      </c>
+      <c r="I115" t="s">
+        <v>518</v>
+      </c>
+      <c r="J115">
         <v>3</v>
       </c>
-      <c r="J115" s="1" t="s">
+      <c r="K115" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="K115" t="s">
+      <c r="L115" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -9323,311 +9579,314 @@
         <v>526</v>
       </c>
       <c r="C116" t="s">
-        <v>635</v>
+        <v>689</v>
       </c>
       <c r="D116" t="s">
+        <v>635</v>
+      </c>
+      <c r="E116" t="s">
         <v>643</v>
       </c>
-      <c r="E116" t="s">
+      <c r="F116" t="s">
         <v>647</v>
       </c>
-      <c r="F116" t="s">
+      <c r="G116" t="s">
         <v>641</v>
       </c>
-      <c r="G116" t="s">
-        <v>6</v>
-      </c>
       <c r="H116" t="s">
-        <v>518</v>
-      </c>
-      <c r="I116">
+        <v>6</v>
+      </c>
+      <c r="I116" t="s">
+        <v>518</v>
+      </c>
+      <c r="J116">
         <v>5</v>
       </c>
-      <c r="J116" s="1" t="s">
+      <c r="K116" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="K116" t="s">
+      <c r="L116" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
         <v>527</v>
       </c>
-      <c r="C117" t="s">
-        <v>635</v>
-      </c>
       <c r="D117" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E117" t="s">
+        <v>638</v>
+      </c>
+      <c r="F117" t="s">
         <v>647</v>
       </c>
-      <c r="F117" t="s">
+      <c r="G117" t="s">
         <v>641</v>
       </c>
-      <c r="G117" t="s">
-        <v>6</v>
-      </c>
       <c r="H117" t="s">
-        <v>518</v>
-      </c>
-      <c r="I117">
+        <v>6</v>
+      </c>
+      <c r="I117" t="s">
+        <v>518</v>
+      </c>
+      <c r="J117">
         <v>11</v>
       </c>
-      <c r="J117" s="1" t="s">
+      <c r="K117" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="K117" t="s">
+      <c r="L117" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
         <v>528</v>
       </c>
-      <c r="C118" t="s">
-        <v>635</v>
-      </c>
       <c r="D118" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E118" t="s">
+        <v>638</v>
+      </c>
+      <c r="F118" t="s">
         <v>647</v>
       </c>
-      <c r="F118" t="s">
+      <c r="G118" t="s">
         <v>641</v>
       </c>
-      <c r="G118" t="s">
-        <v>6</v>
-      </c>
       <c r="H118" t="s">
-        <v>518</v>
-      </c>
-      <c r="I118">
+        <v>6</v>
+      </c>
+      <c r="I118" t="s">
+        <v>518</v>
+      </c>
+      <c r="J118">
         <v>4</v>
       </c>
-      <c r="J118" s="1" t="s">
+      <c r="K118" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="K118" t="s">
+      <c r="L118" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" t="s">
         <v>529</v>
       </c>
-      <c r="C119" t="s">
-        <v>635</v>
-      </c>
       <c r="D119" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E119" t="s">
+        <v>638</v>
+      </c>
+      <c r="F119" t="s">
         <v>647</v>
       </c>
-      <c r="F119" t="s">
+      <c r="G119" t="s">
         <v>641</v>
       </c>
-      <c r="G119" t="s">
-        <v>6</v>
-      </c>
       <c r="H119" t="s">
-        <v>518</v>
-      </c>
-      <c r="I119">
+        <v>6</v>
+      </c>
+      <c r="I119" t="s">
+        <v>518</v>
+      </c>
+      <c r="J119">
         <v>2</v>
       </c>
-      <c r="J119" s="1" t="s">
+      <c r="K119" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="K119" t="s">
+      <c r="L119" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" t="s">
         <v>530</v>
       </c>
-      <c r="C120" t="s">
-        <v>635</v>
-      </c>
       <c r="D120" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E120" t="s">
+        <v>638</v>
+      </c>
+      <c r="F120" t="s">
         <v>647</v>
       </c>
-      <c r="F120" t="s">
+      <c r="G120" t="s">
         <v>641</v>
       </c>
-      <c r="G120" t="s">
-        <v>6</v>
-      </c>
       <c r="H120" t="s">
-        <v>518</v>
-      </c>
-      <c r="I120">
+        <v>6</v>
+      </c>
+      <c r="I120" t="s">
+        <v>518</v>
+      </c>
+      <c r="J120">
         <v>2</v>
       </c>
-      <c r="J120" s="1" t="s">
+      <c r="K120" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="K120" t="s">
+      <c r="L120" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" t="s">
         <v>531</v>
       </c>
-      <c r="C121" t="s">
-        <v>635</v>
-      </c>
       <c r="D121" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E121" t="s">
+        <v>638</v>
+      </c>
+      <c r="F121" t="s">
         <v>647</v>
       </c>
-      <c r="F121" t="s">
+      <c r="G121" t="s">
         <v>641</v>
       </c>
-      <c r="G121" t="s">
-        <v>1</v>
-      </c>
       <c r="H121" t="s">
-        <v>518</v>
-      </c>
-      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="I121" t="s">
+        <v>518</v>
+      </c>
+      <c r="J121">
         <v>368</v>
       </c>
-      <c r="J121" s="1" t="s">
+      <c r="K121" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="K121" t="s">
+      <c r="L121" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" t="s">
         <v>532</v>
       </c>
-      <c r="C122" t="s">
-        <v>635</v>
-      </c>
       <c r="D122" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E122" t="s">
+        <v>638</v>
+      </c>
+      <c r="F122" t="s">
         <v>647</v>
       </c>
-      <c r="F122" t="s">
+      <c r="G122" t="s">
         <v>641</v>
       </c>
-      <c r="G122" t="s">
-        <v>1</v>
-      </c>
       <c r="H122" t="s">
-        <v>518</v>
-      </c>
-      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="I122" t="s">
+        <v>518</v>
+      </c>
+      <c r="J122">
         <v>368</v>
       </c>
-      <c r="J122" s="1" t="s">
+      <c r="K122" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="K122" t="s">
+      <c r="L122" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" t="s">
         <v>533</v>
       </c>
-      <c r="C123" t="s">
-        <v>635</v>
-      </c>
       <c r="D123" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E123" t="s">
+        <v>638</v>
+      </c>
+      <c r="F123" t="s">
         <v>647</v>
       </c>
-      <c r="F123" t="s">
+      <c r="G123" t="s">
         <v>641</v>
       </c>
-      <c r="G123" t="s">
-        <v>1</v>
-      </c>
       <c r="H123" t="s">
-        <v>518</v>
-      </c>
-      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="I123" t="s">
+        <v>518</v>
+      </c>
+      <c r="J123">
         <v>368</v>
       </c>
-      <c r="J123" s="1" t="s">
+      <c r="K123" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="K123" t="s">
+      <c r="L123" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" t="s">
         <v>250</v>
       </c>
-      <c r="C124" t="s">
-        <v>635</v>
-      </c>
-      <c r="E124" t="s">
+      <c r="D124" t="s">
+        <v>635</v>
+      </c>
+      <c r="F124" t="s">
         <v>647</v>
       </c>
-      <c r="F124" t="s">
+      <c r="G124" t="s">
         <v>641</v>
       </c>
-      <c r="G124" t="s">
-        <v>6</v>
-      </c>
       <c r="H124" t="s">
-        <v>518</v>
-      </c>
-      <c r="I124">
+        <v>6</v>
+      </c>
+      <c r="I124" t="s">
+        <v>518</v>
+      </c>
+      <c r="J124">
         <v>3</v>
       </c>
-      <c r="J124" s="1" t="s">
+      <c r="K124" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="K124" t="s">
+      <c r="L124" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -9635,34 +9894,37 @@
         <v>251</v>
       </c>
       <c r="C125" t="s">
+        <v>680</v>
+      </c>
+      <c r="D125" t="s">
         <v>634</v>
       </c>
-      <c r="D125" t="s">
+      <c r="E125" t="s">
         <v>637</v>
       </c>
-      <c r="E125" t="s">
+      <c r="F125" t="s">
         <v>646</v>
       </c>
-      <c r="F125" t="s">
+      <c r="G125" t="s">
         <v>653</v>
       </c>
-      <c r="G125" t="s">
-        <v>6</v>
-      </c>
       <c r="H125" t="s">
-        <v>518</v>
-      </c>
-      <c r="I125">
+        <v>6</v>
+      </c>
+      <c r="I125" t="s">
+        <v>518</v>
+      </c>
+      <c r="J125">
         <v>714167</v>
       </c>
-      <c r="J125" s="1" t="s">
+      <c r="K125" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="K125" t="s">
+      <c r="L125" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -9670,30 +9932,33 @@
         <v>254</v>
       </c>
       <c r="C126" t="s">
-        <v>635</v>
+        <v>681</v>
       </c>
       <c r="D126" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E126" t="s">
+        <v>638</v>
+      </c>
+      <c r="F126" t="s">
         <v>646</v>
       </c>
-      <c r="F126" t="s">
+      <c r="G126" t="s">
         <v>641</v>
       </c>
-      <c r="G126" t="s">
-        <v>6</v>
-      </c>
       <c r="H126" t="s">
-        <v>518</v>
-      </c>
-      <c r="I126">
+        <v>6</v>
+      </c>
+      <c r="I126" t="s">
+        <v>518</v>
+      </c>
+      <c r="J126">
         <v>8</v>
       </c>
-      <c r="J126" s="1" t="s">
+      <c r="K126" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="K126" t="s">
+      <c r="L126" t="s">
         <v>630</v>
       </c>
     </row>

--- a/google_analytics_schema.xlsx
+++ b/google_analytics_schema.xlsx
@@ -2173,7 +2173,7 @@
     <t>page_path_level_4</t>
   </si>
   <si>
-    <t>0</t>
+    <t>Variable Name</t>
   </si>
 </sst>
 </file>
@@ -2261,19 +2261,11 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="tbValidFields" displayName="tbValidFields" ref="A1:L126" totalsRowShown="0">
-  <autoFilter ref="A1:L126">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="device_category"/>
-        <filter val="product_category"/>
-        <filter val="product_category_grp"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:L126"/>
   <tableColumns count="12">
     <tableColumn id="6" name="#"/>
     <tableColumn id="1" name="Field Name"/>
-    <tableColumn id="12" name="0"/>
+    <tableColumn id="12" name="Variable Name"/>
     <tableColumn id="7" name="RFM"/>
     <tableColumn id="9" name="Field Group"/>
     <tableColumn id="10" name="Status"/>
@@ -5420,8 +5412,8 @@
   </sheetPr>
   <dimension ref="A1:L126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L78" sqref="L78"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5476,7 +5468,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5514,7 +5506,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="43.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5552,7 +5544,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5587,7 +5579,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5625,7 +5617,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5663,7 +5655,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5698,7 +5690,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5736,7 +5728,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5774,7 +5766,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5809,7 +5801,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5847,7 +5839,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5882,7 +5874,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5917,7 +5909,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5952,7 +5944,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5987,7 +5979,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6022,7 +6014,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6057,7 +6049,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6092,7 +6084,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -6130,7 +6122,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -6165,7 +6157,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -6200,7 +6192,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -6235,7 +6227,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -6270,7 +6262,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -6302,7 +6294,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -6340,7 +6332,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -6375,7 +6367,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="43.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -6413,7 +6405,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -6445,7 +6437,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -6483,7 +6475,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -6521,7 +6513,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -6556,7 +6548,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -6594,7 +6586,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -6632,7 +6624,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -6670,7 +6662,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -6708,7 +6700,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -6746,7 +6738,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -6784,7 +6776,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -6822,7 +6814,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -6860,7 +6852,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -6892,7 +6884,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -6930,7 +6922,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -6965,7 +6957,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -7000,7 +6992,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -7038,7 +7030,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -7073,7 +7065,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -7108,7 +7100,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -7143,7 +7135,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -7175,7 +7167,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -7213,7 +7205,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -7248,7 +7240,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -7283,7 +7275,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -7318,7 +7310,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -7353,7 +7345,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -7391,7 +7383,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -7429,7 +7421,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -7467,7 +7459,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -7505,7 +7497,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -7543,7 +7535,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -7581,7 +7573,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -7616,7 +7608,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -7651,7 +7643,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -7686,7 +7678,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -7721,7 +7713,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -7756,7 +7748,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -7791,7 +7783,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -7826,7 +7818,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -7861,7 +7853,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -7896,7 +7888,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -7931,7 +7923,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -7966,7 +7958,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -8001,7 +7993,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -8036,7 +8028,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -8071,7 +8063,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -8106,7 +8098,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -8141,7 +8133,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -8179,7 +8171,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -8255,7 +8247,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -8290,7 +8282,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -8328,7 +8320,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -8363,7 +8355,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -8398,7 +8390,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -8436,7 +8428,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -8471,7 +8463,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -8509,7 +8501,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -8544,7 +8536,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -8579,7 +8571,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -8614,7 +8606,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -8649,7 +8641,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -8684,7 +8676,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -8719,7 +8711,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -8754,7 +8746,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -8789,7 +8781,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -8824,7 +8816,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -8859,7 +8851,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="172.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" ht="172.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -8894,7 +8886,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -8929,7 +8921,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -8964,7 +8956,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="57.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -8999,7 +8991,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -9037,7 +9029,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -9075,7 +9067,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -9110,7 +9102,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -9145,7 +9137,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -9180,7 +9172,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -9215,7 +9207,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -9250,7 +9242,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -9285,7 +9277,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -9320,7 +9312,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -9355,7 +9347,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -9390,7 +9382,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -9425,7 +9417,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="43.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -9460,7 +9452,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -9536,7 +9528,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -9571,7 +9563,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -9609,7 +9601,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -9644,7 +9636,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -9679,7 +9671,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -9714,7 +9706,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -9749,7 +9741,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -9784,7 +9776,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -9819,7 +9811,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -9854,7 +9846,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -9886,7 +9878,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -9924,7 +9916,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>

--- a/google_analytics_schema.xlsx
+++ b/google_analytics_schema.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1948" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2006" uniqueCount="711">
   <si>
     <t>visitorId</t>
   </si>
@@ -2122,9 +2122,6 @@
     <t>product_quantity</t>
   </si>
   <si>
-    <t>social_source_referral</t>
-  </si>
-  <si>
     <t>client_id</t>
   </si>
   <si>
@@ -2174,6 +2171,51 @@
   </si>
   <si>
     <t>Variable Name</t>
+  </si>
+  <si>
+    <t>referral_path</t>
+  </si>
+  <si>
+    <t>campaign</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>ad_content</t>
+  </si>
+  <si>
+    <t>ad_page</t>
+  </si>
+  <si>
+    <t>ad_slot</t>
+  </si>
+  <si>
+    <t>page_keyword</t>
+  </si>
+  <si>
+    <t>traffic_keyword</t>
+  </si>
+  <si>
+    <t>social_action</t>
+  </si>
+  <si>
+    <t>social_interactions</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>is_social_referral</t>
+  </si>
+  <si>
+    <t>social_interaction_network</t>
+  </si>
+  <si>
+    <t>network_action</t>
+  </si>
+  <si>
+    <t>unique_social_interactions</t>
   </si>
 </sst>
 </file>
@@ -2260,8 +2302,21 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="tbValidFields" displayName="tbValidFields" ref="A1:L126" totalsRowShown="0">
-  <autoFilter ref="A1:L126"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="tbValidFields" displayName="tbValidFields" ref="A1:L131" totalsRowShown="0">
+  <autoFilter ref="A1:L131">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="trafficSource.adContent"/>
+        <filter val="trafficSource.adwordsClickInfo.adNetworkType"/>
+        <filter val="trafficSource.adwordsClickInfo.gclId"/>
+        <filter val="trafficSource.adwordsClickInfo.isVideoAd"/>
+        <filter val="trafficSource.adwordsClickInfo.page"/>
+        <filter val="trafficSource.adwordsClickInfo.slot"/>
+        <filter val="trafficSource.campaign"/>
+        <filter val="trafficSource.campaignCode"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="12">
     <tableColumn id="6" name="#"/>
     <tableColumn id="1" name="Field Name"/>
@@ -2545,8 +2600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C258"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A76" sqref="A71:A76"/>
+    <sheetView topLeftCell="A214" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A221" sqref="A221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5410,10 +5465,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L126"/>
+  <dimension ref="A1:L131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5438,7 +5493,7 @@
         <v>257</v>
       </c>
       <c r="C1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D1" t="s">
         <v>633</v>
@@ -5468,7 +5523,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5488,7 +5543,7 @@
         <v>646</v>
       </c>
       <c r="G2" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="H2" t="s">
         <v>1</v>
@@ -5506,7 +5561,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="43.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5523,7 +5578,7 @@
         <v>637</v>
       </c>
       <c r="F3" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="G3" t="s">
         <v>653</v>
@@ -5544,7 +5599,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5579,7 +5634,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5617,7 +5672,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5655,7 +5710,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5690,7 +5745,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5707,7 +5762,7 @@
         <v>638</v>
       </c>
       <c r="F8" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="G8" t="s">
         <v>640</v>
@@ -5728,7 +5783,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5766,7 +5821,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5801,7 +5856,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5818,7 +5873,7 @@
         <v>638</v>
       </c>
       <c r="F11" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="G11" t="s">
         <v>640</v>
@@ -5839,7 +5894,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5874,7 +5929,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5909,7 +5964,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5944,7 +5999,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5979,13 +6034,16 @@
         <v>535</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
       </c>
+      <c r="C16" t="s">
+        <v>696</v>
+      </c>
       <c r="D16" t="s">
         <v>635</v>
       </c>
@@ -5993,7 +6051,7 @@
         <v>643</v>
       </c>
       <c r="F16" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G16" t="s">
         <v>641</v>
@@ -6021,6 +6079,9 @@
       <c r="B17" t="s">
         <v>23</v>
       </c>
+      <c r="C17" t="s">
+        <v>697</v>
+      </c>
       <c r="D17" t="s">
         <v>635</v>
       </c>
@@ -6028,7 +6089,7 @@
         <v>638</v>
       </c>
       <c r="F17" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G17" t="s">
         <v>641</v>
@@ -6049,13 +6110,16 @@
         <v>546</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
       </c>
+      <c r="C18" t="s">
+        <v>698</v>
+      </c>
       <c r="D18" t="s">
         <v>635</v>
       </c>
@@ -6063,7 +6127,7 @@
         <v>643</v>
       </c>
       <c r="F18" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G18" t="s">
         <v>641</v>
@@ -6084,7 +6148,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -6122,13 +6186,16 @@
         <v>548</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
       </c>
+      <c r="C20" t="s">
+        <v>703</v>
+      </c>
       <c r="D20" t="s">
         <v>635</v>
       </c>
@@ -6136,7 +6203,7 @@
         <v>643</v>
       </c>
       <c r="F20" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G20" t="s">
         <v>641</v>
@@ -6164,6 +6231,9 @@
       <c r="B21" t="s">
         <v>27</v>
       </c>
+      <c r="C21" t="s">
+        <v>699</v>
+      </c>
       <c r="D21" t="s">
         <v>635</v>
       </c>
@@ -6171,7 +6241,7 @@
         <v>638</v>
       </c>
       <c r="F21" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G21" t="s">
         <v>641</v>
@@ -6199,6 +6269,9 @@
       <c r="B22" t="s">
         <v>33</v>
       </c>
+      <c r="C22" t="s">
+        <v>700</v>
+      </c>
       <c r="D22" t="s">
         <v>635</v>
       </c>
@@ -6206,7 +6279,7 @@
         <v>638</v>
       </c>
       <c r="F22" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G22" t="s">
         <v>641</v>
@@ -6234,6 +6307,9 @@
       <c r="B23" t="s">
         <v>34</v>
       </c>
+      <c r="C23" t="s">
+        <v>701</v>
+      </c>
       <c r="D23" t="s">
         <v>635</v>
       </c>
@@ -6241,7 +6317,7 @@
         <v>638</v>
       </c>
       <c r="F23" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G23" t="s">
         <v>641</v>
@@ -6367,7 +6443,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="43.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -6375,7 +6451,7 @@
         <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D27" t="s">
         <v>635</v>
@@ -6437,7 +6513,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -6475,7 +6551,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -6513,7 +6589,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -6548,7 +6624,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -6586,7 +6662,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -6624,7 +6700,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -6662,7 +6738,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -6670,7 +6746,7 @@
         <v>66</v>
       </c>
       <c r="C35" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D35" t="s">
         <v>635</v>
@@ -6700,7 +6776,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -6708,7 +6784,7 @@
         <v>67</v>
       </c>
       <c r="C36" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D36" t="s">
         <v>635</v>
@@ -6738,7 +6814,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -6746,7 +6822,7 @@
         <v>68</v>
       </c>
       <c r="C37" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D37" t="s">
         <v>635</v>
@@ -6776,7 +6852,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -6814,7 +6890,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -6822,7 +6898,7 @@
         <v>71</v>
       </c>
       <c r="C39" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D39" t="s">
         <v>635</v>
@@ -6852,7 +6928,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -6884,7 +6960,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -6922,7 +6998,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -6957,7 +7033,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -6992,7 +7068,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -7030,7 +7106,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -7065,7 +7141,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -7100,7 +7176,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -7135,7 +7211,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -7167,7 +7243,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -7175,7 +7251,7 @@
         <v>89</v>
       </c>
       <c r="C49" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D49" t="s">
         <v>635</v>
@@ -7205,7 +7281,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -7240,7 +7316,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -7275,13 +7351,16 @@
         <v>576</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>92</v>
       </c>
+      <c r="C52" t="s">
+        <v>702</v>
+      </c>
       <c r="D52" t="s">
         <v>635</v>
       </c>
@@ -7289,7 +7368,7 @@
         <v>638</v>
       </c>
       <c r="F52" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G52" t="s">
         <v>641</v>
@@ -7310,7 +7389,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -7345,7 +7424,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -7353,7 +7432,7 @@
         <v>94</v>
       </c>
       <c r="C54" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D54" t="s">
         <v>635</v>
@@ -7383,7 +7462,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -7391,7 +7470,7 @@
         <v>95</v>
       </c>
       <c r="C55" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D55" t="s">
         <v>635</v>
@@ -7421,7 +7500,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -7429,7 +7508,7 @@
         <v>96</v>
       </c>
       <c r="C56" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D56" t="s">
         <v>635</v>
@@ -7459,7 +7538,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -7467,7 +7546,7 @@
         <v>97</v>
       </c>
       <c r="C57" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D57" t="s">
         <v>635</v>
@@ -7497,7 +7576,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -7535,7 +7614,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -7543,7 +7622,7 @@
         <v>100</v>
       </c>
       <c r="C59" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D59" t="s">
         <v>634</v>
@@ -7573,7 +7652,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -7608,7 +7687,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -7643,7 +7722,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -7678,7 +7757,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -7713,7 +7792,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -7748,7 +7827,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -7783,7 +7862,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -7818,7 +7897,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -7853,7 +7932,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -7888,7 +7967,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -7923,7 +8002,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -7958,7 +8037,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -7993,7 +8072,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -8028,7 +8107,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -8063,7 +8142,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -8098,7 +8177,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -8133,7 +8212,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -8171,7 +8250,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -8209,7 +8288,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -8247,7 +8326,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -8282,7 +8361,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -8320,7 +8399,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -8355,7 +8434,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -8390,7 +8469,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -8428,7 +8507,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -8463,7 +8542,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -8501,7 +8580,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -8536,7 +8615,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -8571,7 +8650,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -8606,7 +8685,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -8641,7 +8720,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -8676,7 +8755,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -8711,7 +8790,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -8746,7 +8825,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -8781,7 +8860,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -8816,7 +8895,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -8851,7 +8930,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="172.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" ht="172.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -8886,7 +8965,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -8921,7 +9000,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -8956,7 +9035,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" ht="57.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -8991,15 +9070,15 @@
         <v>611</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C100" t="s">
-        <v>669</v>
+        <v>707</v>
       </c>
       <c r="D100" t="s">
         <v>635</v>
@@ -9011,7 +9090,7 @@
         <v>646</v>
       </c>
       <c r="G100" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="H100" t="s">
         <v>6</v>
@@ -9020,24 +9099,21 @@
         <v>518</v>
       </c>
       <c r="J100">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="L100" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101">
-        <v>100</v>
-      </c>
+        <v>613</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C101" t="s">
-        <v>679</v>
+        <v>704</v>
       </c>
       <c r="D101" t="s">
         <v>635</v>
@@ -9049,7 +9125,7 @@
         <v>646</v>
       </c>
       <c r="G101" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="H101" t="s">
         <v>6</v>
@@ -9057,22 +9133,19 @@
       <c r="I101" t="s">
         <v>518</v>
       </c>
-      <c r="J101">
-        <v>2</v>
-      </c>
-      <c r="K101" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="L101" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102">
-        <v>101</v>
-      </c>
+      <c r="J101" t="s">
+        <v>706</v>
+      </c>
+      <c r="K101" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
-        <v>230</v>
+        <v>221</v>
+      </c>
+      <c r="C102" t="s">
+        <v>708</v>
       </c>
       <c r="D102" t="s">
         <v>635</v>
@@ -9081,33 +9154,30 @@
         <v>638</v>
       </c>
       <c r="F102" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G102" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H102" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I102" t="s">
         <v>518</v>
       </c>
-      <c r="J102">
-        <v>368</v>
-      </c>
-      <c r="K102" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="L102" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103">
-        <v>102</v>
-      </c>
+      <c r="J102" t="s">
+        <v>706</v>
+      </c>
+      <c r="K102" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
-        <v>231</v>
+        <v>228</v>
+      </c>
+      <c r="C103" t="s">
+        <v>709</v>
       </c>
       <c r="D103" t="s">
         <v>635</v>
@@ -9116,33 +9186,30 @@
         <v>638</v>
       </c>
       <c r="F103" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G103" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H103" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I103" t="s">
         <v>518</v>
       </c>
-      <c r="J103">
-        <v>10606</v>
-      </c>
-      <c r="K103" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="L103" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104">
-        <v>103</v>
-      </c>
+      <c r="J103" t="s">
+        <v>706</v>
+      </c>
+      <c r="K103" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
-        <v>232</v>
+        <v>223</v>
+      </c>
+      <c r="C104" t="s">
+        <v>705</v>
       </c>
       <c r="D104" t="s">
         <v>635</v>
@@ -9151,7 +9218,7 @@
         <v>638</v>
       </c>
       <c r="F104" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G104" t="s">
         <v>640</v>
@@ -9162,22 +9229,19 @@
       <c r="I104" t="s">
         <v>518</v>
       </c>
-      <c r="J104">
-        <v>1764</v>
-      </c>
-      <c r="K104" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="L104" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105">
-        <v>104</v>
-      </c>
+      <c r="J104" t="s">
+        <v>706</v>
+      </c>
+      <c r="K104" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
-        <v>233</v>
+        <v>225</v>
+      </c>
+      <c r="C105" t="s">
+        <v>669</v>
       </c>
       <c r="D105" t="s">
         <v>635</v>
@@ -9186,33 +9250,33 @@
         <v>638</v>
       </c>
       <c r="F105" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G105" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H105" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I105" t="s">
         <v>518</v>
       </c>
       <c r="J105">
-        <v>2445</v>
+        <v>16</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>364</v>
+        <v>426</v>
       </c>
       <c r="L105" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106">
-        <v>105</v>
-      </c>
+        <v>612</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
-        <v>234</v>
+        <v>226</v>
+      </c>
+      <c r="C106" t="s">
+        <v>710</v>
       </c>
       <c r="D106" t="s">
         <v>635</v>
@@ -9221,7 +9285,7 @@
         <v>638</v>
       </c>
       <c r="F106" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G106" t="s">
         <v>640</v>
@@ -9232,22 +9296,19 @@
       <c r="I106" t="s">
         <v>518</v>
       </c>
-      <c r="J106">
-        <v>368</v>
-      </c>
-      <c r="K106" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="L106" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J106" t="s">
+        <v>706</v>
+      </c>
+      <c r="K106" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B107" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D107" t="s">
         <v>635</v>
@@ -9268,21 +9329,21 @@
         <v>518</v>
       </c>
       <c r="J107">
-        <v>1290</v>
+        <v>368</v>
       </c>
       <c r="K107" s="1" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="L107" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B108" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D108" t="s">
         <v>635</v>
@@ -9303,21 +9364,21 @@
         <v>518</v>
       </c>
       <c r="J108">
-        <v>1783</v>
+        <v>10606</v>
       </c>
       <c r="K108" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="L108" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B109" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D109" t="s">
         <v>635</v>
@@ -9338,21 +9399,21 @@
         <v>518</v>
       </c>
       <c r="J109">
-        <v>4473</v>
+        <v>1764</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="L109" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B110" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D110" t="s">
         <v>635</v>
@@ -9373,21 +9434,21 @@
         <v>518</v>
       </c>
       <c r="J110">
-        <v>368</v>
+        <v>2445</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="L110" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B111" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D111" t="s">
         <v>635</v>
@@ -9408,21 +9469,21 @@
         <v>518</v>
       </c>
       <c r="J111">
-        <v>8339</v>
+        <v>368</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="L111" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B112" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D112" t="s">
         <v>635</v>
@@ -9443,62 +9504,56 @@
         <v>518</v>
       </c>
       <c r="J112">
-        <v>8383</v>
+        <v>1290</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L112" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B113" t="s">
-        <v>522</v>
-      </c>
-      <c r="C113" t="s">
-        <v>688</v>
+        <v>236</v>
       </c>
       <c r="D113" t="s">
         <v>635</v>
       </c>
       <c r="E113" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="F113" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="G113" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H113" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I113" t="s">
         <v>518</v>
       </c>
       <c r="J113">
-        <v>4</v>
+        <v>1783</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>649</v>
+        <v>365</v>
       </c>
       <c r="L113" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B114" t="s">
-        <v>524</v>
-      </c>
-      <c r="C114" t="s">
-        <v>690</v>
+        <v>237</v>
       </c>
       <c r="D114" t="s">
         <v>635</v>
@@ -9507,33 +9562,33 @@
         <v>638</v>
       </c>
       <c r="F114" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="G114" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H114" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I114" t="s">
         <v>518</v>
       </c>
       <c r="J114">
-        <v>10</v>
+        <v>4473</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>650</v>
+        <v>366</v>
       </c>
       <c r="L114" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B115" t="s">
-        <v>525</v>
+        <v>238</v>
       </c>
       <c r="D115" t="s">
         <v>635</v>
@@ -9545,68 +9600,65 @@
         <v>647</v>
       </c>
       <c r="G115" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H115" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I115" t="s">
         <v>518</v>
       </c>
       <c r="J115">
-        <v>3</v>
+        <v>368</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>651</v>
+        <v>360</v>
       </c>
       <c r="L115" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B116" t="s">
-        <v>526</v>
-      </c>
-      <c r="C116" t="s">
-        <v>689</v>
+        <v>239</v>
       </c>
       <c r="D116" t="s">
         <v>635</v>
       </c>
       <c r="E116" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="F116" t="s">
         <v>647</v>
       </c>
       <c r="G116" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H116" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I116" t="s">
         <v>518</v>
       </c>
       <c r="J116">
-        <v>5</v>
+        <v>8339</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>649</v>
+        <v>359</v>
       </c>
       <c r="L116" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="43.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B117" t="s">
-        <v>527</v>
+        <v>240</v>
       </c>
       <c r="D117" t="s">
         <v>635</v>
@@ -9618,39 +9670,42 @@
         <v>647</v>
       </c>
       <c r="G117" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H117" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I117" t="s">
         <v>518</v>
       </c>
       <c r="J117">
-        <v>11</v>
+        <v>8383</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>650</v>
+        <v>358</v>
       </c>
       <c r="L117" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B118" t="s">
-        <v>528</v>
+        <v>522</v>
+      </c>
+      <c r="C118" t="s">
+        <v>687</v>
       </c>
       <c r="D118" t="s">
         <v>635</v>
       </c>
       <c r="E118" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="F118" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G118" t="s">
         <v>641</v>
@@ -9665,18 +9720,21 @@
         <v>4</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="L118" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B119" t="s">
-        <v>529</v>
+        <v>524</v>
+      </c>
+      <c r="C119" t="s">
+        <v>689</v>
       </c>
       <c r="D119" t="s">
         <v>635</v>
@@ -9685,7 +9743,7 @@
         <v>638</v>
       </c>
       <c r="F119" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G119" t="s">
         <v>641</v>
@@ -9697,21 +9755,21 @@
         <v>518</v>
       </c>
       <c r="J119">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>523</v>
+        <v>650</v>
       </c>
       <c r="L119" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B120" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="D120" t="s">
         <v>635</v>
@@ -9732,27 +9790,30 @@
         <v>518</v>
       </c>
       <c r="J120">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>523</v>
+        <v>651</v>
       </c>
       <c r="L120" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B121" t="s">
-        <v>531</v>
+        <v>526</v>
+      </c>
+      <c r="C121" t="s">
+        <v>688</v>
       </c>
       <c r="D121" t="s">
         <v>635</v>
       </c>
       <c r="E121" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="F121" t="s">
         <v>647</v>
@@ -9761,27 +9822,27 @@
         <v>641</v>
       </c>
       <c r="H121" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I121" t="s">
         <v>518</v>
       </c>
       <c r="J121">
-        <v>368</v>
+        <v>5</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>523</v>
+        <v>649</v>
       </c>
       <c r="L121" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B122" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="D122" t="s">
         <v>635</v>
@@ -9796,27 +9857,27 @@
         <v>641</v>
       </c>
       <c r="H122" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I122" t="s">
         <v>518</v>
       </c>
       <c r="J122">
-        <v>368</v>
+        <v>11</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>523</v>
+        <v>650</v>
       </c>
       <c r="L122" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B123" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="D123" t="s">
         <v>635</v>
@@ -9831,30 +9892,33 @@
         <v>641</v>
       </c>
       <c r="H123" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I123" t="s">
         <v>518</v>
       </c>
       <c r="J123">
-        <v>368</v>
+        <v>4</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>523</v>
+        <v>651</v>
       </c>
       <c r="L123" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B124" t="s">
-        <v>250</v>
+        <v>529</v>
       </c>
       <c r="D124" t="s">
         <v>635</v>
+      </c>
+      <c r="E124" t="s">
+        <v>638</v>
       </c>
       <c r="F124" t="s">
         <v>647</v>
@@ -9869,36 +9933,33 @@
         <v>518</v>
       </c>
       <c r="J124">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>339</v>
+        <v>523</v>
       </c>
       <c r="L124" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B125" t="s">
-        <v>251</v>
-      </c>
-      <c r="C125" t="s">
-        <v>680</v>
+        <v>530</v>
       </c>
       <c r="D125" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="E125" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="F125" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="G125" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="H125" t="s">
         <v>6</v>
@@ -9907,24 +9968,21 @@
         <v>518</v>
       </c>
       <c r="J125">
-        <v>714167</v>
+        <v>2</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>260</v>
+        <v>523</v>
       </c>
       <c r="L125" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B126" t="s">
-        <v>254</v>
-      </c>
-      <c r="C126" t="s">
-        <v>681</v>
+        <v>531</v>
       </c>
       <c r="D126" t="s">
         <v>635</v>
@@ -9933,24 +9991,202 @@
         <v>638</v>
       </c>
       <c r="F126" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="G126" t="s">
         <v>641</v>
       </c>
       <c r="H126" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I126" t="s">
         <v>518</v>
       </c>
       <c r="J126">
+        <v>368</v>
+      </c>
+      <c r="K126" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="L126" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>121</v>
+      </c>
+      <c r="B127" t="s">
+        <v>532</v>
+      </c>
+      <c r="D127" t="s">
+        <v>635</v>
+      </c>
+      <c r="E127" t="s">
+        <v>638</v>
+      </c>
+      <c r="F127" t="s">
+        <v>647</v>
+      </c>
+      <c r="G127" t="s">
+        <v>641</v>
+      </c>
+      <c r="H127" t="s">
+        <v>1</v>
+      </c>
+      <c r="I127" t="s">
+        <v>518</v>
+      </c>
+      <c r="J127">
+        <v>368</v>
+      </c>
+      <c r="K127" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="L127" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>122</v>
+      </c>
+      <c r="B128" t="s">
+        <v>533</v>
+      </c>
+      <c r="D128" t="s">
+        <v>635</v>
+      </c>
+      <c r="E128" t="s">
+        <v>638</v>
+      </c>
+      <c r="F128" t="s">
+        <v>647</v>
+      </c>
+      <c r="G128" t="s">
+        <v>641</v>
+      </c>
+      <c r="H128" t="s">
+        <v>1</v>
+      </c>
+      <c r="I128" t="s">
+        <v>518</v>
+      </c>
+      <c r="J128">
+        <v>368</v>
+      </c>
+      <c r="K128" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="L128" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>123</v>
+      </c>
+      <c r="B129" t="s">
+        <v>250</v>
+      </c>
+      <c r="D129" t="s">
+        <v>635</v>
+      </c>
+      <c r="F129" t="s">
+        <v>647</v>
+      </c>
+      <c r="G129" t="s">
+        <v>641</v>
+      </c>
+      <c r="H129" t="s">
+        <v>6</v>
+      </c>
+      <c r="I129" t="s">
+        <v>518</v>
+      </c>
+      <c r="J129">
+        <v>3</v>
+      </c>
+      <c r="K129" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="L129" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>124</v>
+      </c>
+      <c r="B130" t="s">
+        <v>251</v>
+      </c>
+      <c r="C130" t="s">
+        <v>679</v>
+      </c>
+      <c r="D130" t="s">
+        <v>634</v>
+      </c>
+      <c r="E130" t="s">
+        <v>637</v>
+      </c>
+      <c r="F130" t="s">
+        <v>646</v>
+      </c>
+      <c r="G130" t="s">
+        <v>653</v>
+      </c>
+      <c r="H130" t="s">
+        <v>6</v>
+      </c>
+      <c r="I130" t="s">
+        <v>518</v>
+      </c>
+      <c r="J130">
+        <v>714167</v>
+      </c>
+      <c r="K130" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L130" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>125</v>
+      </c>
+      <c r="B131" t="s">
+        <v>254</v>
+      </c>
+      <c r="C131" t="s">
+        <v>680</v>
+      </c>
+      <c r="D131" t="s">
+        <v>635</v>
+      </c>
+      <c r="E131" t="s">
+        <v>638</v>
+      </c>
+      <c r="F131" t="s">
+        <v>646</v>
+      </c>
+      <c r="G131" t="s">
+        <v>641</v>
+      </c>
+      <c r="H131" t="s">
+        <v>6</v>
+      </c>
+      <c r="I131" t="s">
+        <v>518</v>
+      </c>
+      <c r="J131">
         <v>8</v>
       </c>
-      <c r="K126" s="1" t="s">
+      <c r="K131" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="L126" t="s">
+      <c r="L131" t="s">
         <v>630</v>
       </c>
     </row>

--- a/google_analytics_schema.xlsx
+++ b/google_analytics_schema.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2006" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2006" uniqueCount="710">
   <si>
     <t>visitorId</t>
   </si>
@@ -2039,9 +2039,6 @@
   </si>
   <si>
     <t>Clothing by Gender</t>
-  </si>
-  <si>
-    <t>ORDINAL</t>
   </si>
   <si>
     <t>IDENTIFIER</t>
@@ -2303,20 +2300,7 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="tbValidFields" displayName="tbValidFields" ref="A1:L131" totalsRowShown="0">
-  <autoFilter ref="A1:L131">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="trafficSource.adContent"/>
-        <filter val="trafficSource.adwordsClickInfo.adNetworkType"/>
-        <filter val="trafficSource.adwordsClickInfo.gclId"/>
-        <filter val="trafficSource.adwordsClickInfo.isVideoAd"/>
-        <filter val="trafficSource.adwordsClickInfo.page"/>
-        <filter val="trafficSource.adwordsClickInfo.slot"/>
-        <filter val="trafficSource.campaign"/>
-        <filter val="trafficSource.campaignCode"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:L131"/>
   <tableColumns count="12">
     <tableColumn id="6" name="#"/>
     <tableColumn id="1" name="Field Name"/>
@@ -5468,7 +5452,7 @@
   <dimension ref="A1:L131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B138" sqref="B138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5493,7 +5477,7 @@
         <v>257</v>
       </c>
       <c r="C1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D1" t="s">
         <v>633</v>
@@ -5502,7 +5486,7 @@
         <v>636</v>
       </c>
       <c r="F1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G1" t="s">
         <v>639</v>
@@ -5523,7 +5507,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5531,7 +5515,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D2" t="s">
         <v>635</v>
@@ -5561,7 +5545,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="43.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5569,7 +5553,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D3" t="s">
         <v>635</v>
@@ -5581,7 +5565,7 @@
         <v>647</v>
       </c>
       <c r="G3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H3" t="s">
         <v>1</v>
@@ -5599,7 +5583,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5634,7 +5618,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5672,7 +5656,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5680,7 +5664,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D6" t="s">
         <v>635</v>
@@ -5710,7 +5694,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5745,7 +5729,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5753,7 +5737,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D8" t="s">
         <v>635</v>
@@ -5762,7 +5746,7 @@
         <v>638</v>
       </c>
       <c r="F8" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G8" t="s">
         <v>640</v>
@@ -5783,7 +5767,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5791,7 +5775,7 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D9" t="s">
         <v>635</v>
@@ -5821,7 +5805,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5856,7 +5840,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5864,7 +5848,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D11" t="s">
         <v>635</v>
@@ -5894,7 +5878,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5929,7 +5913,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5964,7 +5948,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5999,7 +5983,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6034,7 +6018,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6042,7 +6026,7 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D16" t="s">
         <v>635</v>
@@ -6080,7 +6064,7 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D17" t="s">
         <v>635</v>
@@ -6110,7 +6094,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6118,7 +6102,7 @@
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D18" t="s">
         <v>635</v>
@@ -6148,7 +6132,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -6156,7 +6140,7 @@
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D19" t="s">
         <v>635</v>
@@ -6186,7 +6170,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -6194,7 +6178,7 @@
         <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D20" t="s">
         <v>635</v>
@@ -6232,7 +6216,7 @@
         <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D21" t="s">
         <v>635</v>
@@ -6270,7 +6254,7 @@
         <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D22" t="s">
         <v>635</v>
@@ -6308,7 +6292,7 @@
         <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D23" t="s">
         <v>635</v>
@@ -6378,7 +6362,7 @@
         <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D25" t="s">
         <v>635</v>
@@ -6443,7 +6427,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="43.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -6451,7 +6435,7 @@
         <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D27" t="s">
         <v>635</v>
@@ -6513,7 +6497,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -6521,7 +6505,7 @@
         <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D29" t="s">
         <v>635</v>
@@ -6551,7 +6535,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -6559,7 +6543,7 @@
         <v>49</v>
       </c>
       <c r="C30" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D30" t="s">
         <v>635</v>
@@ -6589,7 +6573,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -6624,7 +6608,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -6632,7 +6616,7 @@
         <v>62</v>
       </c>
       <c r="C32" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D32" t="s">
         <v>635</v>
@@ -6662,7 +6646,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -6670,7 +6654,7 @@
         <v>64</v>
       </c>
       <c r="C33" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D33" t="s">
         <v>635</v>
@@ -6700,7 +6684,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -6708,7 +6692,7 @@
         <v>65</v>
       </c>
       <c r="C34" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D34" t="s">
         <v>635</v>
@@ -6738,7 +6722,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -6746,7 +6730,7 @@
         <v>66</v>
       </c>
       <c r="C35" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D35" t="s">
         <v>635</v>
@@ -6776,7 +6760,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -6784,7 +6768,7 @@
         <v>67</v>
       </c>
       <c r="C36" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D36" t="s">
         <v>635</v>
@@ -6814,7 +6798,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -6822,7 +6806,7 @@
         <v>68</v>
       </c>
       <c r="C37" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D37" t="s">
         <v>635</v>
@@ -6852,7 +6836,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -6860,7 +6844,7 @@
         <v>69</v>
       </c>
       <c r="C38" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D38" t="s">
         <v>635</v>
@@ -6890,7 +6874,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -6898,7 +6882,7 @@
         <v>71</v>
       </c>
       <c r="C39" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D39" t="s">
         <v>635</v>
@@ -6928,7 +6912,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -6960,7 +6944,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -6968,7 +6952,7 @@
         <v>77</v>
       </c>
       <c r="C41" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D41" t="s">
         <v>635</v>
@@ -6998,7 +6982,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -7033,7 +7017,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -7068,7 +7052,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -7076,7 +7060,7 @@
         <v>81</v>
       </c>
       <c r="C44" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D44" t="s">
         <v>635</v>
@@ -7106,7 +7090,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -7141,7 +7125,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -7176,7 +7160,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -7211,7 +7195,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -7243,7 +7227,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -7251,7 +7235,7 @@
         <v>89</v>
       </c>
       <c r="C49" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D49" t="s">
         <v>635</v>
@@ -7281,7 +7265,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -7316,7 +7300,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -7351,7 +7335,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -7359,7 +7343,7 @@
         <v>92</v>
       </c>
       <c r="C52" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D52" t="s">
         <v>635</v>
@@ -7389,7 +7373,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -7424,7 +7408,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -7432,7 +7416,7 @@
         <v>94</v>
       </c>
       <c r="C54" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D54" t="s">
         <v>635</v>
@@ -7462,7 +7446,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -7470,7 +7454,7 @@
         <v>95</v>
       </c>
       <c r="C55" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D55" t="s">
         <v>635</v>
@@ -7500,7 +7484,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -7508,7 +7492,7 @@
         <v>96</v>
       </c>
       <c r="C56" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D56" t="s">
         <v>635</v>
@@ -7538,7 +7522,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -7546,7 +7530,7 @@
         <v>97</v>
       </c>
       <c r="C57" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D57" t="s">
         <v>635</v>
@@ -7576,16 +7560,13 @@
         <v>582</v>
       </c>
     </row>
-    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>99</v>
       </c>
-      <c r="C58" t="s">
-        <v>674</v>
-      </c>
       <c r="D58" t="s">
         <v>634</v>
       </c>
@@ -7593,10 +7574,10 @@
         <v>638</v>
       </c>
       <c r="F58" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="G58" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H58" t="s">
         <v>6</v>
@@ -7614,7 +7595,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -7622,7 +7603,7 @@
         <v>100</v>
       </c>
       <c r="C59" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D59" t="s">
         <v>634</v>
@@ -7652,7 +7633,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -7687,7 +7668,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -7722,7 +7703,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -7757,7 +7738,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -7792,7 +7773,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -7827,7 +7808,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -7862,7 +7843,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -7897,7 +7878,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -7932,13 +7913,16 @@
         <v>589</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>110</v>
       </c>
+      <c r="C68" t="s">
+        <v>673</v>
+      </c>
       <c r="D68" t="s">
         <v>635</v>
       </c>
@@ -7946,7 +7930,7 @@
         <v>638</v>
       </c>
       <c r="F68" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G68" t="s">
         <v>652</v>
@@ -7967,7 +7951,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -8002,7 +7986,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -8037,7 +8021,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -8072,7 +8056,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -8107,7 +8091,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -8142,7 +8126,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -8177,7 +8161,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -8212,7 +8196,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -8220,7 +8204,7 @@
         <v>140</v>
       </c>
       <c r="C76" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D76" t="s">
         <v>635</v>
@@ -8232,7 +8216,7 @@
         <v>646</v>
       </c>
       <c r="G76" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H76" t="s">
         <v>6</v>
@@ -8250,7 +8234,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -8258,7 +8242,7 @@
         <v>141</v>
       </c>
       <c r="C77" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D77" t="s">
         <v>635</v>
@@ -8288,7 +8272,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -8296,7 +8280,7 @@
         <v>142</v>
       </c>
       <c r="C78" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D78" t="s">
         <v>635</v>
@@ -8326,7 +8310,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -8361,7 +8345,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -8369,7 +8353,7 @@
         <v>144</v>
       </c>
       <c r="C80" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D80" t="s">
         <v>635</v>
@@ -8399,7 +8383,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -8434,7 +8418,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -8469,7 +8453,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -8477,7 +8461,7 @@
         <v>147</v>
       </c>
       <c r="C83" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D83" t="s">
         <v>635</v>
@@ -8507,7 +8491,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -8542,7 +8526,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -8550,7 +8534,7 @@
         <v>149</v>
       </c>
       <c r="C85" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D85" t="s">
         <v>635</v>
@@ -8580,7 +8564,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -8615,7 +8599,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -8650,7 +8634,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -8685,7 +8669,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -8720,7 +8704,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -8737,7 +8721,7 @@
         <v>647</v>
       </c>
       <c r="G90" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H90" t="s">
         <v>6</v>
@@ -8755,7 +8739,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -8790,7 +8774,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -8825,7 +8809,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -8860,7 +8844,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -8895,7 +8879,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -8930,7 +8914,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="172.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" ht="172.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -8965,7 +8949,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -9000,7 +8984,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -9035,7 +9019,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="57.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -9070,7 +9054,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>100</v>
       </c>
@@ -9078,7 +9062,7 @@
         <v>227</v>
       </c>
       <c r="C100" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D100" t="s">
         <v>635</v>
@@ -9108,12 +9092,12 @@
         <v>613</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
         <v>222</v>
       </c>
       <c r="C101" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D101" t="s">
         <v>635</v>
@@ -9134,18 +9118,18 @@
         <v>518</v>
       </c>
       <c r="J101" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="K101" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
         <v>221</v>
       </c>
       <c r="C102" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D102" t="s">
         <v>635</v>
@@ -9166,18 +9150,18 @@
         <v>518</v>
       </c>
       <c r="J102" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="K102" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
         <v>228</v>
       </c>
       <c r="C103" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D103" t="s">
         <v>635</v>
@@ -9198,18 +9182,18 @@
         <v>518</v>
       </c>
       <c r="J103" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="K103" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
         <v>223</v>
       </c>
       <c r="C104" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D104" t="s">
         <v>635</v>
@@ -9230,18 +9214,18 @@
         <v>518</v>
       </c>
       <c r="J104" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="K104" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
         <v>225</v>
       </c>
       <c r="C105" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D105" t="s">
         <v>635</v>
@@ -9271,12 +9255,12 @@
         <v>612</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
         <v>226</v>
       </c>
       <c r="C106" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D106" t="s">
         <v>635</v>
@@ -9297,13 +9281,13 @@
         <v>518</v>
       </c>
       <c r="J106" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="K106" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>101</v>
       </c>
@@ -9338,7 +9322,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>102</v>
       </c>
@@ -9373,7 +9357,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>103</v>
       </c>
@@ -9408,7 +9392,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>104</v>
       </c>
@@ -9443,7 +9427,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>105</v>
       </c>
@@ -9478,7 +9462,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>106</v>
       </c>
@@ -9513,7 +9497,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>107</v>
       </c>
@@ -9548,7 +9532,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>108</v>
       </c>
@@ -9583,7 +9567,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>109</v>
       </c>
@@ -9618,7 +9602,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>110</v>
       </c>
@@ -9653,7 +9637,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="43.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>111</v>
       </c>
@@ -9688,7 +9672,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>112</v>
       </c>
@@ -9696,7 +9680,7 @@
         <v>522</v>
       </c>
       <c r="C118" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D118" t="s">
         <v>635</v>
@@ -9726,7 +9710,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>113</v>
       </c>
@@ -9734,7 +9718,7 @@
         <v>524</v>
       </c>
       <c r="C119" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D119" t="s">
         <v>635</v>
@@ -9764,7 +9748,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>114</v>
       </c>
@@ -9799,7 +9783,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>115</v>
       </c>
@@ -9807,7 +9791,7 @@
         <v>526</v>
       </c>
       <c r="C121" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D121" t="s">
         <v>635</v>
@@ -9837,7 +9821,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>116</v>
       </c>
@@ -9872,7 +9856,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>117</v>
       </c>
@@ -9907,7 +9891,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>118</v>
       </c>
@@ -9942,7 +9926,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>119</v>
       </c>
@@ -9977,7 +9961,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>120</v>
       </c>
@@ -10012,7 +9996,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>121</v>
       </c>
@@ -10047,7 +10031,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>122</v>
       </c>
@@ -10082,7 +10066,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="28.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>123</v>
       </c>
@@ -10114,7 +10098,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>124</v>
       </c>
@@ -10122,7 +10106,7 @@
         <v>251</v>
       </c>
       <c r="C130" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D130" t="s">
         <v>634</v>
@@ -10134,7 +10118,7 @@
         <v>646</v>
       </c>
       <c r="G130" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H130" t="s">
         <v>6</v>
@@ -10152,7 +10136,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>125</v>
       </c>
@@ -10160,7 +10144,7 @@
         <v>254</v>
       </c>
       <c r="C131" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D131" t="s">
         <v>635</v>
